--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_19_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_19_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>255679.146724876</v>
+        <v>254968.0330913591</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681859</v>
+        <v>590120.9651681855</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>239.2980585815353</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>238.6996843454278</v>
       </c>
       <c r="F11" t="n">
-        <v>262.8755120706812</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>188.1932235828415</v>
       </c>
       <c r="I11" t="n">
-        <v>39.97987658855403</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.13678136468732</v>
+        <v>32.61541412602647</v>
       </c>
       <c r="T11" t="n">
-        <v>76.18203808719859</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>107.0161961264908</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>184.1148701126597</v>
+        <v>184.1148701126596</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>206.1117655906949</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>226.4432477213097</v>
       </c>
       <c r="Y11" t="n">
-        <v>169.2780817819539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.95377420048516</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
         <v>171.025583927401</v>
@@ -1455,10 +1455,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>11.61508229731416</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>135.8294555064438</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>76.55219659209881</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>19.17460593416255</v>
+        <v>19.17460593416252</v>
       </c>
       <c r="T12" t="n">
-        <v>52.7991756860995</v>
+        <v>121.6745957010928</v>
       </c>
       <c r="U12" t="n">
-        <v>80.21981034484466</v>
+        <v>80.21981034484463</v>
       </c>
       <c r="V12" t="n">
-        <v>87.49037962979546</v>
+        <v>87.49037962979543</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>105.5709953401403</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>60.04327819861857</v>
       </c>
       <c r="Y12" t="n">
-        <v>59.25280000872635</v>
+        <v>59.25280000872633</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.66534008082414</v>
+        <v>35.66534008082411</v>
       </c>
       <c r="C13" t="n">
-        <v>22.91820152134267</v>
+        <v>22.91820152134264</v>
       </c>
       <c r="D13" t="n">
-        <v>4.587215104659691</v>
+        <v>4.587215104659663</v>
       </c>
       <c r="E13" t="n">
-        <v>2.556272763339507</v>
+        <v>2.556272763339479</v>
       </c>
       <c r="F13" t="n">
-        <v>1.740669999944828</v>
+        <v>1.740669999944799</v>
       </c>
       <c r="G13" t="n">
-        <v>23.22892217192736</v>
+        <v>23.22892217192733</v>
       </c>
       <c r="H13" t="n">
-        <v>15.06131686580287</v>
+        <v>15.06131686580284</v>
       </c>
       <c r="I13" t="n">
-        <v>2.053112003489563</v>
+        <v>2.053112003489536</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.07741705268774</v>
+        <v>18.07741705268771</v>
       </c>
       <c r="S13" t="n">
-        <v>73.7161598903681</v>
+        <v>73.71615989036808</v>
       </c>
       <c r="T13" t="n">
-        <v>82.8787671842763</v>
+        <v>82.87876718427627</v>
       </c>
       <c r="U13" t="n">
         <v>141.620701780387</v>
@@ -1588,13 +1588,13 @@
         <v>108.5179996570795</v>
       </c>
       <c r="W13" t="n">
-        <v>141.6742254775559</v>
+        <v>141.6742254775558</v>
       </c>
       <c r="X13" t="n">
-        <v>81.72200852244958</v>
+        <v>81.72200852244956</v>
       </c>
       <c r="Y13" t="n">
-        <v>74.33032245790855</v>
+        <v>74.33032245790852</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.2980585815355</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>222.566744269083</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>78.57101530627206</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>269.8962134915471</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>188.1932235828415</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.7549628677668991</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>76.18203808719862</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>107.0161961264909</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>184.1148701126597</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>226.4432477213097</v>
       </c>
       <c r="Y14" t="n">
-        <v>242.2687203413762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>134.3485326062078</v>
+        <v>20.95377420048519</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>26.60723251754135</v>
       </c>
       <c r="D15" t="n">
-        <v>1.694072164785979</v>
+        <v>1.694072164785922</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>11.61508229731419</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>135.7341774550896</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>107.6710676475892</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>76.55219659209881</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>76.74959551402546</v>
       </c>
       <c r="S15" t="n">
-        <v>19.17460593416263</v>
+        <v>19.17460593416258</v>
       </c>
       <c r="T15" t="n">
-        <v>52.79917568609958</v>
+        <v>52.79917568609952</v>
       </c>
       <c r="U15" t="n">
-        <v>80.21981034484475</v>
+        <v>176.0469540995333</v>
       </c>
       <c r="V15" t="n">
-        <v>87.49037962979554</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>105.5709953401404</v>
       </c>
       <c r="X15" t="n">
-        <v>60.04327819861868</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>59.25280000872644</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.66534008082422</v>
+        <v>35.66534008082417</v>
       </c>
       <c r="C16" t="n">
-        <v>22.91820152134275</v>
+        <v>22.9182015213427</v>
       </c>
       <c r="D16" t="n">
-        <v>4.587215104659776</v>
+        <v>4.58721510465972</v>
       </c>
       <c r="E16" t="n">
-        <v>2.556272763339592</v>
+        <v>2.556272763339535</v>
       </c>
       <c r="F16" t="n">
-        <v>1.740669999944913</v>
+        <v>1.740669999944856</v>
       </c>
       <c r="G16" t="n">
-        <v>23.22892217192744</v>
+        <v>23.22892217192739</v>
       </c>
       <c r="H16" t="n">
-        <v>15.06131686580296</v>
+        <v>15.0613168658029</v>
       </c>
       <c r="I16" t="n">
-        <v>2.053112003489648</v>
+        <v>2.053112003489593</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.07741705268783</v>
+        <v>18.07741705268777</v>
       </c>
       <c r="S16" t="n">
-        <v>73.71615989036819</v>
+        <v>73.71615989036813</v>
       </c>
       <c r="T16" t="n">
-        <v>82.87876718427638</v>
+        <v>82.87876718427633</v>
       </c>
       <c r="U16" t="n">
         <v>141.6207017803871</v>
       </c>
       <c r="V16" t="n">
-        <v>108.5179996570796</v>
+        <v>108.5179996570795</v>
       </c>
       <c r="W16" t="n">
-        <v>141.674225477556</v>
+        <v>141.6742254775559</v>
       </c>
       <c r="X16" t="n">
-        <v>81.72200852244967</v>
+        <v>81.72200852244961</v>
       </c>
       <c r="Y16" t="n">
-        <v>74.33032245790864</v>
+        <v>74.33032245790858</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>162.8800173650562</v>
       </c>
       <c r="H17" t="n">
-        <v>81.17702745635071</v>
+        <v>81.17702745634935</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>93.12244128406297</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
@@ -1938,10 +1938,10 @@
         <v>135.7341774550896</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.6710676475892</v>
       </c>
       <c r="I18" t="n">
-        <v>76.55219659209881</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>76.74959551402546</v>
       </c>
       <c r="S18" t="n">
-        <v>163.5929573440222</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>183.5103740842021</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>146.2739649022436</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>71.70714980148178</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>53.38928357936402</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>81.88488260900057</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>98.09440765701423</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.6710676475892</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>76.74959551402546</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6381617547043</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.2739649022435</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>100.897132033635</v>
+        <v>34.60450565389624</v>
       </c>
       <c r="V22" t="n">
         <v>1.501803530588688</v>
@@ -2302,7 +2302,7 @@
         <v>34.65802935106507</v>
       </c>
       <c r="X22" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2397,16 +2397,16 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>59.84426247344675</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>76.55219659209881</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,16 +2445,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>163.5929573440222</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6381617547043</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>46.32992130771817</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -2463,7 +2463,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -2479,16 +2479,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>145.4583621388488</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>1.501803530588688</v>
       </c>
       <c r="W25" t="n">
-        <v>178.0854491485937</v>
+        <v>34.65802935106507</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.19064276171999</v>
+        <v>52.19064276172</v>
       </c>
       <c r="T26" t="n">
-        <v>79.23589948423127</v>
+        <v>79.23589948423128</v>
       </c>
       <c r="U26" t="n">
         <v>110.0700575235235</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>24.00763559751783</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
@@ -2643,7 +2643,7 @@
         <v>14.66894369434684</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>2.141742070722302</v>
       </c>
       <c r="G27" t="n">
         <v>135.7341774550896</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>76.55219659209881</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>76.74959551402546</v>
       </c>
       <c r="S27" t="n">
-        <v>125.0577726043167</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T27" t="n">
         <v>197.2175270959592</v>
@@ -2700,7 +2700,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>62.30666140575903</v>
+        <v>153.198664585583</v>
       </c>
     </row>
     <row r="28">
@@ -2731,7 +2731,7 @@
         <v>18.11517826283555</v>
       </c>
       <c r="I28" t="n">
-        <v>5.106973400522239</v>
+        <v>5.106973400522241</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>191.2470849798742</v>
       </c>
       <c r="I29" t="n">
-        <v>43.0337379855867</v>
+        <v>43.03373798558671</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.19064276172</v>
+        <v>52.19064276171999</v>
       </c>
       <c r="T29" t="n">
-        <v>79.23589948423128</v>
+        <v>79.23589948423127</v>
       </c>
       <c r="U29" t="n">
         <v>110.0700575235235</v>
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.3721256103448</v>
+        <v>24.00763559751783</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>4.74793356181857</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>14.66894369434684</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>2.141742070722302</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.7341774550896</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>107.6710676475892</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.55219659209881</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.97053104625986</v>
       </c>
       <c r="S30" t="n">
         <v>163.5929573440222</v>
@@ -2931,10 +2931,10 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>205.8238494525574</v>
+        <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>63.09713959565127</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -2968,7 +2968,7 @@
         <v>18.11517826283555</v>
       </c>
       <c r="I31" t="n">
-        <v>5.106973400522239</v>
+        <v>5.106973400522241</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>242.3519199785681</v>
+        <v>242.3519199785682</v>
       </c>
       <c r="C32" t="n">
-        <v>225.6206056661157</v>
+        <v>225.6206056661158</v>
       </c>
       <c r="D32" t="n">
-        <v>215.2402427417714</v>
+        <v>215.2402427417715</v>
       </c>
       <c r="E32" t="n">
-        <v>241.7535457424605</v>
+        <v>241.7535457424606</v>
       </c>
       <c r="F32" t="n">
-        <v>265.9293734677138</v>
+        <v>265.929373467714</v>
       </c>
       <c r="G32" t="n">
-        <v>272.9500748885797</v>
+        <v>272.9500748885798</v>
       </c>
       <c r="H32" t="n">
-        <v>191.2470849798742</v>
+        <v>191.2470849798743</v>
       </c>
       <c r="I32" t="n">
-        <v>43.03373798558673</v>
+        <v>43.03373798558681</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.19064276172003</v>
+        <v>52.19064276172011</v>
       </c>
       <c r="T32" t="n">
-        <v>79.23589948423131</v>
+        <v>79.2358994842314</v>
       </c>
       <c r="U32" t="n">
-        <v>110.0700575235235</v>
+        <v>110.0700575235236</v>
       </c>
       <c r="V32" t="n">
-        <v>187.1687315096924</v>
+        <v>187.1687315096925</v>
       </c>
       <c r="W32" t="n">
-        <v>209.1656269877276</v>
+        <v>209.1656269877277</v>
       </c>
       <c r="X32" t="n">
-        <v>229.4971091183424</v>
+        <v>229.4971091183425</v>
       </c>
       <c r="Y32" t="n">
-        <v>245.3225817384088</v>
+        <v>245.3225817384089</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.00763559751786</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>29.66109391457402</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>129.3333591068803</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>14.66894369434695</v>
       </c>
       <c r="F33" t="n">
-        <v>2.14174207072233</v>
+        <v>2.141742070722415</v>
       </c>
       <c r="G33" t="n">
         <v>135.7341774550896</v>
       </c>
       <c r="H33" t="n">
-        <v>107.6710676475892</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>76.55219659209881</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>197.2175270959592</v>
       </c>
       <c r="U33" t="n">
-        <v>83.27367174187737</v>
+        <v>224.6381617547043</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3171,7 +3171,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>89.17684935474675</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38.71920147785684</v>
+        <v>38.71920147785693</v>
       </c>
       <c r="C34" t="n">
-        <v>25.97206291837537</v>
+        <v>25.97206291837546</v>
       </c>
       <c r="D34" t="n">
-        <v>7.641076501692396</v>
+        <v>7.641076501692481</v>
       </c>
       <c r="E34" t="n">
-        <v>5.610134160372212</v>
+        <v>5.610134160372297</v>
       </c>
       <c r="F34" t="n">
-        <v>4.794531396977533</v>
+        <v>4.794531396977618</v>
       </c>
       <c r="G34" t="n">
-        <v>26.28278356896006</v>
+        <v>26.28278356896015</v>
       </c>
       <c r="H34" t="n">
-        <v>18.11517826283558</v>
+        <v>18.11517826283566</v>
       </c>
       <c r="I34" t="n">
-        <v>5.106973400522268</v>
+        <v>5.106973400522355</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.13127844972045</v>
+        <v>21.13127844972053</v>
       </c>
       <c r="S34" t="n">
-        <v>76.77002128740081</v>
+        <v>76.77002128740089</v>
       </c>
       <c r="T34" t="n">
-        <v>85.932628581309</v>
+        <v>85.93262858130909</v>
       </c>
       <c r="U34" t="n">
-        <v>144.6745631774197</v>
+        <v>144.6745631774198</v>
       </c>
       <c r="V34" t="n">
-        <v>111.5718610541122</v>
+        <v>111.5718610541123</v>
       </c>
       <c r="W34" t="n">
-        <v>144.7280868745886</v>
+        <v>144.7280868745887</v>
       </c>
       <c r="X34" t="n">
-        <v>84.77586991948229</v>
+        <v>84.77586991948237</v>
       </c>
       <c r="Y34" t="n">
-        <v>77.38418385494126</v>
+        <v>77.38418385494134</v>
       </c>
     </row>
     <row r="35">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>72.64920456620661</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>76.55219659209881</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>76.74959551402546</v>
       </c>
       <c r="S36" t="n">
-        <v>88.19826274010468</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T36" t="n">
-        <v>197.2175270959592</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>224.6381617547043</v>
@@ -3411,7 +3411,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>26.67198088583937</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.647273581787</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>199.6908952035474</v>
+        <v>5.371640735920963</v>
       </c>
       <c r="U37" t="n">
         <v>64.1135753320317</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>40.55133124996416</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>76.74959551402546</v>
+        <v>26.3008733759957</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3642,13 +3642,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>28.06386889178503</v>
       </c>
       <c r="X39" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>122.6121046661446</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>14.2355629769426</v>
+        <v>71.70714980148178</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>163.1160204943369</v>
+        <v>163.1160204943368</v>
       </c>
       <c r="C41" t="n">
         <v>146.3847061818844</v>
       </c>
       <c r="D41" t="n">
-        <v>136.0043432575402</v>
+        <v>136.0043432575401</v>
       </c>
       <c r="E41" t="n">
-        <v>162.5176462582293</v>
+        <v>162.5176462582292</v>
       </c>
       <c r="F41" t="n">
         <v>186.6934739834826</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.83415803929229</v>
+        <v>30.83415803929223</v>
       </c>
       <c r="V41" t="n">
-        <v>107.9328320254612</v>
+        <v>107.9328320254611</v>
       </c>
       <c r="W41" t="n">
-        <v>129.9297275034964</v>
+        <v>129.9297275034963</v>
       </c>
       <c r="X41" t="n">
-        <v>150.2612096341112</v>
+        <v>150.2612096341111</v>
       </c>
       <c r="Y41" t="n">
         <v>166.0866822541776</v>
@@ -3819,25 +3819,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>107.6710676475892</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>76.55219659209881</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,13 +3870,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>197.2175270959592</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>224.6381617547043</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>20.67607209711945</v>
       </c>
       <c r="W42" t="n">
         <v>249.98934675</v>
@@ -3885,7 +3885,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>71.64194072599936</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,19 +3907,19 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>7.610121171158557</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>41.53479125203815</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.696729097077779</v>
+        <v>6.696729097077722</v>
       </c>
       <c r="U43" t="n">
-        <v>65.43866369318852</v>
+        <v>65.43866369318846</v>
       </c>
       <c r="V43" t="n">
-        <v>32.33596156988096</v>
+        <v>32.33596156988091</v>
       </c>
       <c r="W43" t="n">
-        <v>65.49218739035734</v>
+        <v>65.49218739035729</v>
       </c>
       <c r="X43" t="n">
-        <v>5.539970435251064</v>
+        <v>5.539970435251007</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>11.94145256365013</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
@@ -4068,10 +4068,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.7341774550896</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.6710676475892</v>
       </c>
       <c r="I45" t="n">
         <v>76.55219659209881</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>76.74959551402546</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>163.5929573440222</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,10 +4116,10 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>126.9320271397511</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>162.4957684625474</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.696729097077694</v>
+        <v>31.89477329637306</v>
       </c>
       <c r="U46" t="n">
         <v>65.43866369318843</v>
@@ -4198,7 +4198,7 @@
         <v>65.49218739035726</v>
       </c>
       <c r="X46" t="n">
-        <v>193.2337830970937</v>
+        <v>5.539970435250979</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>764.2371221778649</v>
+        <v>458.322588178637</v>
       </c>
       <c r="C11" t="n">
-        <v>764.2371221778649</v>
+        <v>458.322588178637</v>
       </c>
       <c r="D11" t="n">
-        <v>764.2371221778649</v>
+        <v>458.322588178637</v>
       </c>
       <c r="E11" t="n">
-        <v>523.1263299097559</v>
+        <v>217.2117959105281</v>
       </c>
       <c r="F11" t="n">
-        <v>257.5955096363405</v>
+        <v>217.2117959105281</v>
       </c>
       <c r="G11" t="n">
-        <v>257.5955096363405</v>
+        <v>217.2117959105281</v>
       </c>
       <c r="H11" t="n">
-        <v>67.50134440114705</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="I11" t="n">
         <v>27.11763067533489</v>
@@ -5048,10 +5048,10 @@
         <v>548.0277310363816</v>
       </c>
       <c r="M11" t="n">
-        <v>849.0022737115474</v>
+        <v>882.4111001545634</v>
       </c>
       <c r="N11" t="n">
-        <v>849.0022737115474</v>
+        <v>882.4111001545634</v>
       </c>
       <c r="O11" t="n">
         <v>1109.07937209369</v>
@@ -5066,25 +5066,25 @@
         <v>1355.881533766744</v>
       </c>
       <c r="S11" t="n">
-        <v>1306.248421277161</v>
+        <v>1322.936671013182</v>
       </c>
       <c r="T11" t="n">
-        <v>1229.296867653728</v>
+        <v>1322.936671013182</v>
       </c>
       <c r="U11" t="n">
-        <v>1121.199699849192</v>
+        <v>1322.936671013182</v>
       </c>
       <c r="V11" t="n">
-        <v>935.225083573778</v>
+        <v>1136.962054737768</v>
       </c>
       <c r="W11" t="n">
-        <v>935.225083573778</v>
+        <v>928.7683521209048</v>
       </c>
       <c r="X11" t="n">
-        <v>935.225083573778</v>
+        <v>700.0377988670566</v>
       </c>
       <c r="Y11" t="n">
-        <v>764.2371221778649</v>
+        <v>700.0377988670566</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>573.7183800671564</v>
+        <v>650.0243713751023</v>
       </c>
       <c r="C12" t="n">
-        <v>400.9652649889736</v>
+        <v>477.2712562969195</v>
       </c>
       <c r="D12" t="n">
-        <v>253.3769583479175</v>
+        <v>329.6829496558634</v>
       </c>
       <c r="E12" t="n">
-        <v>241.6445519869941</v>
+        <v>172.073420658718</v>
       </c>
       <c r="F12" t="n">
-        <v>104.443081778465</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="G12" t="n">
-        <v>104.443081778465</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="H12" t="n">
-        <v>104.443081778465</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="I12" t="n">
         <v>27.11763067533489</v>
       </c>
       <c r="J12" t="n">
-        <v>61.54512539052445</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="K12" t="n">
-        <v>61.54512539052445</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="L12" t="n">
-        <v>371.7520308129087</v>
+        <v>337.3245360977191</v>
       </c>
       <c r="M12" t="n">
-        <v>707.3327104201778</v>
+        <v>672.9052157049883</v>
       </c>
       <c r="N12" t="n">
-        <v>1020.300854159475</v>
+        <v>672.9052157049883</v>
       </c>
       <c r="O12" t="n">
-        <v>1355.881533766744</v>
+        <v>1008.485895312258</v>
       </c>
       <c r="P12" t="n">
-        <v>1355.881533766744</v>
+        <v>1238.177536526419</v>
       </c>
       <c r="Q12" t="n">
         <v>1355.881533766744</v>
@@ -5148,22 +5148,22 @@
         <v>1336.513244944358</v>
       </c>
       <c r="T12" t="n">
-        <v>1283.180744251328</v>
+        <v>1213.609612923052</v>
       </c>
       <c r="U12" t="n">
-        <v>1202.150632791889</v>
+        <v>1132.579501463613</v>
       </c>
       <c r="V12" t="n">
-        <v>1113.776511953712</v>
+        <v>1044.205380625436</v>
       </c>
       <c r="W12" t="n">
-        <v>861.2620202870452</v>
+        <v>937.5680115949909</v>
       </c>
       <c r="X12" t="n">
-        <v>654.7351216926227</v>
+        <v>876.9182356367903</v>
       </c>
       <c r="Y12" t="n">
-        <v>594.883808552495</v>
+        <v>817.0669224966628</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.99208565564447</v>
+        <v>99.99208565564427</v>
       </c>
       <c r="C13" t="n">
-        <v>76.84238714923774</v>
+        <v>76.84238714923757</v>
       </c>
       <c r="D13" t="n">
-        <v>72.20883653847038</v>
+        <v>72.20883653847024</v>
       </c>
       <c r="E13" t="n">
-        <v>69.62674283812744</v>
+        <v>69.62674283812733</v>
       </c>
       <c r="F13" t="n">
-        <v>67.86849031293065</v>
+        <v>67.86849031293056</v>
       </c>
       <c r="G13" t="n">
-        <v>44.40493256350906</v>
+        <v>44.40493256350901</v>
       </c>
       <c r="H13" t="n">
-        <v>29.1914811839102</v>
+        <v>29.19148118391018</v>
       </c>
       <c r="I13" t="n">
         <v>27.11763067533489</v>
       </c>
       <c r="J13" t="n">
-        <v>27.11763067533489</v>
+        <v>99.10172026762902</v>
       </c>
       <c r="K13" t="n">
-        <v>40.36207641856529</v>
+        <v>255.3203339066205</v>
       </c>
       <c r="L13" t="n">
-        <v>156.0615464820876</v>
+        <v>357.9111071944723</v>
       </c>
       <c r="M13" t="n">
-        <v>386.3353402546845</v>
+        <v>445.2107330713081</v>
       </c>
       <c r="N13" t="n">
-        <v>619.674605943029</v>
+        <v>535.5758308638915</v>
       </c>
       <c r="O13" t="n">
-        <v>687.8048032139593</v>
+        <v>746.6801960305829</v>
       </c>
       <c r="P13" t="n">
-        <v>865.8536433359848</v>
+        <v>781.7548682568473</v>
       </c>
       <c r="Q13" t="n">
-        <v>865.8536433359848</v>
+        <v>865.8536433359842</v>
       </c>
       <c r="R13" t="n">
-        <v>847.5936261110477</v>
+        <v>847.5936261110471</v>
       </c>
       <c r="S13" t="n">
-        <v>773.1328585450193</v>
+        <v>773.1328585450187</v>
       </c>
       <c r="T13" t="n">
-        <v>689.4169320962553</v>
+        <v>689.4169320962549</v>
       </c>
       <c r="U13" t="n">
-        <v>546.3657181766724</v>
+        <v>546.3657181766721</v>
       </c>
       <c r="V13" t="n">
-        <v>436.7515771089154</v>
+        <v>436.7515771089151</v>
       </c>
       <c r="W13" t="n">
-        <v>293.6462988487579</v>
+        <v>293.6462988487576</v>
       </c>
       <c r="X13" t="n">
-        <v>211.0988154927482</v>
+        <v>211.0988154927479</v>
       </c>
       <c r="Y13" t="n">
-        <v>136.017681696881</v>
+        <v>136.0176816968807</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>869.4504439456213</v>
+        <v>756.127642809513</v>
       </c>
       <c r="C14" t="n">
-        <v>644.6355507445273</v>
+        <v>756.127642809513</v>
       </c>
       <c r="D14" t="n">
-        <v>565.2708888190001</v>
+        <v>756.127642809513</v>
       </c>
       <c r="E14" t="n">
-        <v>565.2708888190001</v>
+        <v>756.127642809513</v>
       </c>
       <c r="F14" t="n">
-        <v>299.7400685455847</v>
+        <v>490.5968225360976</v>
       </c>
       <c r="G14" t="n">
-        <v>27.11763067533489</v>
+        <v>217.974384665848</v>
       </c>
       <c r="H14" t="n">
-        <v>27.11763067533489</v>
+        <v>27.88021943065499</v>
       </c>
       <c r="I14" t="n">
         <v>27.11763067533489</v>
@@ -5279,22 +5279,22 @@
         <v>27.11763067533489</v>
       </c>
       <c r="K14" t="n">
-        <v>216.4443931010829</v>
+        <v>150.2985313113134</v>
       </c>
       <c r="L14" t="n">
-        <v>503.2900614308958</v>
+        <v>437.1441996411262</v>
       </c>
       <c r="M14" t="n">
-        <v>837.6734305490775</v>
+        <v>771.527568759308</v>
       </c>
       <c r="N14" t="n">
-        <v>1109.07937209369</v>
+        <v>1095.804435384602</v>
       </c>
       <c r="O14" t="n">
-        <v>1109.07937209369</v>
+        <v>1355.881533766744</v>
       </c>
       <c r="P14" t="n">
-        <v>1294.110365298515</v>
+        <v>1355.881533766744</v>
       </c>
       <c r="Q14" t="n">
         <v>1355.881533766744</v>
@@ -5306,22 +5306,22 @@
         <v>1355.881533766744</v>
       </c>
       <c r="T14" t="n">
-        <v>1355.881533766744</v>
+        <v>1278.929980143311</v>
       </c>
       <c r="U14" t="n">
-        <v>1355.881533766744</v>
+        <v>1170.832812338775</v>
       </c>
       <c r="V14" t="n">
-        <v>1355.881533766744</v>
+        <v>984.8581960633612</v>
       </c>
       <c r="W14" t="n">
-        <v>1355.881533766744</v>
+        <v>984.8581960633612</v>
       </c>
       <c r="X14" t="n">
-        <v>1355.881533766744</v>
+        <v>756.127642809513</v>
       </c>
       <c r="Y14" t="n">
-        <v>1111.165654634041</v>
+        <v>756.127642809513</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>605.0553426975971</v>
+        <v>253.5213187756677</v>
       </c>
       <c r="C15" t="n">
-        <v>432.3022276194143</v>
+        <v>226.6453263337067</v>
       </c>
       <c r="D15" t="n">
-        <v>430.59104361458</v>
+        <v>224.9341423288725</v>
       </c>
       <c r="E15" t="n">
-        <v>272.9815146174347</v>
+        <v>213.201735967949</v>
       </c>
       <c r="F15" t="n">
-        <v>272.9815146174347</v>
+        <v>213.201735967949</v>
       </c>
       <c r="G15" t="n">
-        <v>135.876284864819</v>
+        <v>213.201735967949</v>
       </c>
       <c r="H15" t="n">
-        <v>27.11763067533489</v>
+        <v>104.443081778465</v>
       </c>
       <c r="I15" t="n">
         <v>27.11763067533489</v>
       </c>
       <c r="J15" t="n">
-        <v>61.54512539052445</v>
+        <v>61.54512539052443</v>
       </c>
       <c r="K15" t="n">
-        <v>246.9928106217453</v>
+        <v>61.54512539052443</v>
       </c>
       <c r="L15" t="n">
-        <v>313.8050548945675</v>
+        <v>371.7520308129087</v>
       </c>
       <c r="M15" t="n">
-        <v>313.8050548945675</v>
+        <v>567.0161773118803</v>
       </c>
       <c r="N15" t="n">
-        <v>649.3857345018367</v>
+        <v>902.5968569191494</v>
       </c>
       <c r="O15" t="n">
-        <v>984.9664141091059</v>
+        <v>1238.177536526419</v>
       </c>
       <c r="P15" t="n">
         <v>1238.177536526419</v>
@@ -5379,28 +5379,28 @@
         <v>1355.881533766744</v>
       </c>
       <c r="R15" t="n">
-        <v>1355.881533766744</v>
+        <v>1278.356689813183</v>
       </c>
       <c r="S15" t="n">
-        <v>1336.513244944358</v>
+        <v>1258.988400990797</v>
       </c>
       <c r="T15" t="n">
-        <v>1283.180744251328</v>
+        <v>1205.655900297767</v>
       </c>
       <c r="U15" t="n">
-        <v>1202.150632791888</v>
+        <v>1027.830694136622</v>
       </c>
       <c r="V15" t="n">
-        <v>1113.776511953711</v>
+        <v>793.5794506622231</v>
       </c>
       <c r="W15" t="n">
-        <v>861.2620202870445</v>
+        <v>686.9420816317783</v>
       </c>
       <c r="X15" t="n">
-        <v>800.6122443288438</v>
+        <v>480.4151830373557</v>
       </c>
       <c r="Y15" t="n">
-        <v>740.7609311887161</v>
+        <v>274.6867472610062</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.99208565564508</v>
+        <v>99.99208565564467</v>
       </c>
       <c r="C16" t="n">
-        <v>76.84238714923826</v>
+        <v>76.84238714923791</v>
       </c>
       <c r="D16" t="n">
-        <v>72.20883653847081</v>
+        <v>72.20883653847052</v>
       </c>
       <c r="E16" t="n">
-        <v>69.62674283812778</v>
+        <v>69.62674283812756</v>
       </c>
       <c r="F16" t="n">
-        <v>67.8684903129309</v>
+        <v>67.86849031293073</v>
       </c>
       <c r="G16" t="n">
-        <v>44.40493256350923</v>
+        <v>44.40493256350912</v>
       </c>
       <c r="H16" t="n">
-        <v>29.19148118391029</v>
+        <v>29.19148118391023</v>
       </c>
       <c r="I16" t="n">
         <v>27.11763067533489</v>
       </c>
       <c r="J16" t="n">
-        <v>27.11763067533489</v>
+        <v>99.10172026762896</v>
       </c>
       <c r="K16" t="n">
-        <v>40.36207641856529</v>
+        <v>112.3461660108594</v>
       </c>
       <c r="L16" t="n">
-        <v>256.0881900990253</v>
+        <v>214.9369392987123</v>
       </c>
       <c r="M16" t="n">
-        <v>486.3619838716222</v>
+        <v>445.2107330713093</v>
       </c>
       <c r="N16" t="n">
-        <v>719.7012495599665</v>
+        <v>535.5758308638926</v>
       </c>
       <c r="O16" t="n">
-        <v>787.8314468308969</v>
+        <v>603.706028134823</v>
       </c>
       <c r="P16" t="n">
-        <v>822.9061190571613</v>
+        <v>781.7548682568485</v>
       </c>
       <c r="Q16" t="n">
-        <v>865.8536433359861</v>
+        <v>865.8536433359852</v>
       </c>
       <c r="R16" t="n">
-        <v>847.5936261110489</v>
+        <v>847.593626111048</v>
       </c>
       <c r="S16" t="n">
-        <v>773.1328585450204</v>
+        <v>773.1328585450196</v>
       </c>
       <c r="T16" t="n">
-        <v>689.4169320962565</v>
+        <v>689.4169320962557</v>
       </c>
       <c r="U16" t="n">
-        <v>546.3657181766735</v>
+        <v>546.3657181766728</v>
       </c>
       <c r="V16" t="n">
-        <v>436.7515771089163</v>
+        <v>436.7515771089157</v>
       </c>
       <c r="W16" t="n">
-        <v>293.6462988487588</v>
+        <v>293.6462988487582</v>
       </c>
       <c r="X16" t="n">
-        <v>211.098815492749</v>
+        <v>211.0988154927485</v>
       </c>
       <c r="Y16" t="n">
-        <v>136.0176816968817</v>
+        <v>136.0176816968812</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>431.0735506405839</v>
       </c>
       <c r="F17" t="n">
-        <v>273.6398981717048</v>
+        <v>273.6398981717047</v>
       </c>
       <c r="G17" t="n">
-        <v>109.1146281059922</v>
+        <v>109.1146281059908</v>
       </c>
       <c r="H17" t="n">
         <v>27.11763067533489</v>
@@ -5522,13 +5522,13 @@
         <v>548.0277310363816</v>
       </c>
       <c r="M17" t="n">
-        <v>882.4111001545634</v>
+        <v>849.0022737115474</v>
       </c>
       <c r="N17" t="n">
-        <v>1206.687966779857</v>
+        <v>849.0022737115474</v>
       </c>
       <c r="O17" t="n">
-        <v>1206.687966779857</v>
+        <v>1109.07937209369</v>
       </c>
       <c r="P17" t="n">
         <v>1294.110365298515</v>
@@ -5549,7 +5549,7 @@
         <v>1355.881533766744</v>
       </c>
       <c r="V17" t="n">
-        <v>1278.004085295867</v>
+        <v>1278.004085295866</v>
       </c>
       <c r="W17" t="n">
         <v>1177.907550483539</v>
@@ -5558,7 +5558,7 @@
         <v>1057.274165034227</v>
       </c>
       <c r="Y17" t="n">
-        <v>920.6554537060603</v>
+        <v>920.6554537060601</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>544.1136305116091</v>
+        <v>817.1982122431232</v>
       </c>
       <c r="C18" t="n">
-        <v>544.1136305116091</v>
+        <v>723.1351402390192</v>
       </c>
       <c r="D18" t="n">
-        <v>544.1136305116091</v>
+        <v>575.5468335979631</v>
       </c>
       <c r="E18" t="n">
-        <v>386.5041015144639</v>
+        <v>417.9373046008178</v>
       </c>
       <c r="F18" t="n">
-        <v>241.5483115310807</v>
+        <v>272.9815146174347</v>
       </c>
       <c r="G18" t="n">
-        <v>104.443081778465</v>
+        <v>135.876284864819</v>
       </c>
       <c r="H18" t="n">
-        <v>104.443081778465</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="I18" t="n">
         <v>27.11763067533489</v>
       </c>
       <c r="J18" t="n">
-        <v>61.54512539052445</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="K18" t="n">
-        <v>246.9928106217453</v>
+        <v>212.5653159065558</v>
       </c>
       <c r="L18" t="n">
-        <v>557.1997160441296</v>
+        <v>212.5653159065558</v>
       </c>
       <c r="M18" t="n">
-        <v>892.7803956513987</v>
+        <v>548.1459955138249</v>
       </c>
       <c r="N18" t="n">
-        <v>1228.361075258668</v>
+        <v>649.3857345018367</v>
       </c>
       <c r="O18" t="n">
-        <v>1355.881533766744</v>
+        <v>984.9664141091059</v>
       </c>
       <c r="P18" t="n">
-        <v>1355.881533766744</v>
+        <v>1238.177536526419</v>
       </c>
       <c r="Q18" t="n">
         <v>1355.881533766744</v>
       </c>
       <c r="R18" t="n">
-        <v>1355.881533766744</v>
+        <v>1278.356689813183</v>
       </c>
       <c r="S18" t="n">
-        <v>1190.636122308136</v>
+        <v>1278.356689813183</v>
       </c>
       <c r="T18" t="n">
-        <v>1190.636122308136</v>
+        <v>1278.356689813183</v>
       </c>
       <c r="U18" t="n">
-        <v>963.7288882124751</v>
+        <v>1051.449455717522</v>
       </c>
       <c r="V18" t="n">
-        <v>729.4776447380759</v>
+        <v>817.1982122431232</v>
       </c>
       <c r="W18" t="n">
-        <v>544.1136305116091</v>
+        <v>817.1982122431232</v>
       </c>
       <c r="X18" t="n">
-        <v>544.1136305116091</v>
+        <v>817.1982122431232</v>
       </c>
       <c r="Y18" t="n">
-        <v>544.1136305116091</v>
+        <v>817.1982122431232</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>322.5044855359896</v>
+        <v>268.5759162639047</v>
       </c>
       <c r="C19" t="n">
-        <v>322.5044855359896</v>
+        <v>99.54909512127608</v>
       </c>
       <c r="D19" t="n">
-        <v>322.5044855359896</v>
+        <v>99.54909512127608</v>
       </c>
       <c r="E19" t="n">
-        <v>322.5044855359896</v>
+        <v>99.54909512127608</v>
       </c>
       <c r="F19" t="n">
-        <v>174.8691103745709</v>
+        <v>99.54909512127608</v>
       </c>
       <c r="G19" t="n">
-        <v>27.11763067533489</v>
+        <v>99.54909512127608</v>
       </c>
       <c r="H19" t="n">
-        <v>27.11763067533489</v>
+        <v>99.54909512127608</v>
       </c>
       <c r="I19" t="n">
-        <v>27.11763067533489</v>
+        <v>99.54909512127608</v>
       </c>
       <c r="J19" t="n">
         <v>27.11763067533489</v>
       </c>
       <c r="K19" t="n">
-        <v>40.36207641856529</v>
+        <v>40.36207641856528</v>
       </c>
       <c r="L19" t="n">
         <v>113.1140222032643</v>
@@ -5692,31 +5692,31 @@
         <v>393.9836153698784</v>
       </c>
       <c r="Q19" t="n">
-        <v>393.9836153698784</v>
+        <v>340.0550460977935</v>
       </c>
       <c r="R19" t="n">
-        <v>393.9836153698784</v>
+        <v>340.0550460977935</v>
       </c>
       <c r="S19" t="n">
-        <v>393.9836153698784</v>
+        <v>340.0550460977935</v>
       </c>
       <c r="T19" t="n">
-        <v>393.9836153698784</v>
+        <v>340.0550460977935</v>
       </c>
       <c r="U19" t="n">
-        <v>359.0295692548317</v>
+        <v>305.1009999827468</v>
       </c>
       <c r="V19" t="n">
-        <v>357.5125959916109</v>
+        <v>303.5840267195259</v>
       </c>
       <c r="W19" t="n">
-        <v>322.5044855359896</v>
+        <v>268.5759162639047</v>
       </c>
       <c r="X19" t="n">
-        <v>322.5044855359896</v>
+        <v>268.5759162639047</v>
       </c>
       <c r="Y19" t="n">
-        <v>322.5044855359896</v>
+        <v>268.5759162639047</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>787.0374108221773</v>
+        <v>787.0374108221769</v>
       </c>
       <c r="C20" t="n">
-        <v>670.3196854256196</v>
+        <v>670.3196854256191</v>
       </c>
       <c r="D20" t="n">
-        <v>564.087175104157</v>
+        <v>564.0871751041566</v>
       </c>
       <c r="E20" t="n">
-        <v>431.0735506405842</v>
+        <v>431.0735506405838</v>
       </c>
       <c r="F20" t="n">
-        <v>273.639898171705</v>
+        <v>273.6398981717047</v>
       </c>
       <c r="G20" t="n">
         <v>109.1146281059922</v>
@@ -5750,25 +5750,25 @@
         <v>27.11763067533489</v>
       </c>
       <c r="J20" t="n">
-        <v>71.85530028082071</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="K20" t="n">
-        <v>71.85530028082071</v>
+        <v>216.4443931010829</v>
       </c>
       <c r="L20" t="n">
-        <v>358.7009686106335</v>
+        <v>503.2900614308958</v>
       </c>
       <c r="M20" t="n">
-        <v>524.7254070862541</v>
+        <v>837.6734305490775</v>
       </c>
       <c r="N20" t="n">
-        <v>849.0022737115477</v>
+        <v>1161.950297174371</v>
       </c>
       <c r="O20" t="n">
-        <v>1109.07937209369</v>
+        <v>1355.881533766744</v>
       </c>
       <c r="P20" t="n">
-        <v>1294.110365298515</v>
+        <v>1355.881533766744</v>
       </c>
       <c r="Q20" t="n">
         <v>1355.881533766744</v>
@@ -5792,10 +5792,10 @@
         <v>1177.90755048354</v>
       </c>
       <c r="X20" t="n">
-        <v>1057.274165034228</v>
+        <v>1057.274165034227</v>
       </c>
       <c r="Y20" t="n">
-        <v>920.6554537060606</v>
+        <v>920.6554537060603</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>521.1536064807015</v>
+        <v>446.5443126541842</v>
       </c>
       <c r="C21" t="n">
-        <v>521.1536064807015</v>
+        <v>273.7911975760014</v>
       </c>
       <c r="D21" t="n">
-        <v>438.4416038453473</v>
+        <v>126.2028909349452</v>
       </c>
       <c r="E21" t="n">
-        <v>280.8320748482021</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="F21" t="n">
-        <v>135.876284864819</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="G21" t="n">
-        <v>135.876284864819</v>
+        <v>27.11763067533489</v>
       </c>
       <c r="H21" t="n">
         <v>27.11763067533489</v>
@@ -5829,52 +5829,52 @@
         <v>27.11763067533489</v>
       </c>
       <c r="J21" t="n">
-        <v>61.54512539052445</v>
+        <v>61.54512539052443</v>
       </c>
       <c r="K21" t="n">
         <v>246.9928106217453</v>
       </c>
       <c r="L21" t="n">
-        <v>246.9928106217453</v>
+        <v>557.1997160441296</v>
       </c>
       <c r="M21" t="n">
-        <v>582.5734902290146</v>
+        <v>557.1997160441296</v>
       </c>
       <c r="N21" t="n">
-        <v>918.1541698362839</v>
+        <v>892.7803956513987</v>
       </c>
       <c r="O21" t="n">
-        <v>1253.734849443553</v>
+        <v>984.9664141091062</v>
       </c>
       <c r="P21" t="n">
-        <v>1355.881533766744</v>
+        <v>1238.177536526419</v>
       </c>
       <c r="Q21" t="n">
         <v>1355.881533766744</v>
       </c>
       <c r="R21" t="n">
-        <v>1355.881533766744</v>
+        <v>1278.356689813183</v>
       </c>
       <c r="S21" t="n">
-        <v>1355.881533766744</v>
+        <v>1278.356689813183</v>
       </c>
       <c r="T21" t="n">
-        <v>1355.881533766744</v>
+        <v>1278.356689813183</v>
       </c>
       <c r="U21" t="n">
-        <v>1128.974299671084</v>
+        <v>1278.356689813183</v>
       </c>
       <c r="V21" t="n">
-        <v>894.7230561966844</v>
+        <v>1278.356689813183</v>
       </c>
       <c r="W21" t="n">
-        <v>894.7230561966844</v>
+        <v>1025.842198146517</v>
       </c>
       <c r="X21" t="n">
-        <v>688.1961576022619</v>
+        <v>819.3152995520942</v>
       </c>
       <c r="Y21" t="n">
-        <v>688.1961576022619</v>
+        <v>613.5868637757446</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.11763067533489</v>
+        <v>322.5044855359894</v>
       </c>
       <c r="C22" t="n">
-        <v>27.11763067533489</v>
+        <v>322.5044855359894</v>
       </c>
       <c r="D22" t="n">
-        <v>27.11763067533489</v>
+        <v>322.5044855359894</v>
       </c>
       <c r="E22" t="n">
-        <v>27.11763067533489</v>
+        <v>174.7530058367536</v>
       </c>
       <c r="F22" t="n">
         <v>27.11763067533489</v>
@@ -5941,19 +5941,19 @@
         <v>393.9836153698784</v>
       </c>
       <c r="U22" t="n">
-        <v>292.0673203864087</v>
+        <v>359.0295692548316</v>
       </c>
       <c r="V22" t="n">
-        <v>290.5503471231877</v>
+        <v>357.5125959916107</v>
       </c>
       <c r="W22" t="n">
-        <v>255.5422366675665</v>
+        <v>322.5044855359894</v>
       </c>
       <c r="X22" t="n">
-        <v>27.11763067533489</v>
+        <v>322.5044855359894</v>
       </c>
       <c r="Y22" t="n">
-        <v>27.11763067533489</v>
+        <v>322.5044855359894</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>787.0374108221775</v>
+        <v>787.0374108221778</v>
       </c>
       <c r="C23" t="n">
-        <v>670.3196854256198</v>
+        <v>670.31968542562</v>
       </c>
       <c r="D23" t="n">
-        <v>564.0871751041573</v>
+        <v>564.0871751041575</v>
       </c>
       <c r="E23" t="n">
-        <v>431.0735506405845</v>
+        <v>431.0735506405847</v>
       </c>
       <c r="F23" t="n">
-        <v>273.6398981717053</v>
+        <v>273.6398981717055</v>
       </c>
       <c r="G23" t="n">
         <v>109.1146281059922</v>
@@ -5990,22 +5990,22 @@
         <v>27.1176306753349</v>
       </c>
       <c r="K23" t="n">
-        <v>216.444393101083</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="L23" t="n">
-        <v>216.444393101083</v>
+        <v>313.9632990051477</v>
       </c>
       <c r="M23" t="n">
-        <v>550.8277622192647</v>
+        <v>648.3466681233294</v>
       </c>
       <c r="N23" t="n">
-        <v>875.1046288445584</v>
+        <v>972.6235347486231</v>
       </c>
       <c r="O23" t="n">
-        <v>1135.181727226701</v>
+        <v>1232.700633130766</v>
       </c>
       <c r="P23" t="n">
-        <v>1320.212720431526</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="Q23" t="n">
         <v>1355.881533766745</v>
@@ -6032,7 +6032,7 @@
         <v>1057.274165034228</v>
       </c>
       <c r="Y23" t="n">
-        <v>920.6554537060609</v>
+        <v>920.6554537060611</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>337.6449468298264</v>
+        <v>477.2712562969195</v>
       </c>
       <c r="C24" t="n">
-        <v>164.8918317516436</v>
+        <v>477.2712562969195</v>
       </c>
       <c r="D24" t="n">
-        <v>104.443081778465</v>
+        <v>329.6829496558634</v>
       </c>
       <c r="E24" t="n">
-        <v>104.443081778465</v>
+        <v>172.073420658718</v>
       </c>
       <c r="F24" t="n">
-        <v>104.443081778465</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="G24" t="n">
-        <v>104.443081778465</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="H24" t="n">
-        <v>104.443081778465</v>
+        <v>27.1176306753349</v>
       </c>
       <c r="I24" t="n">
         <v>27.1176306753349</v>
       </c>
       <c r="J24" t="n">
-        <v>27.1176306753349</v>
+        <v>61.54512539052445</v>
       </c>
       <c r="K24" t="n">
-        <v>27.1176306753349</v>
+        <v>246.9928106217453</v>
       </c>
       <c r="L24" t="n">
-        <v>231.4354977046113</v>
+        <v>557.1997160441296</v>
       </c>
       <c r="M24" t="n">
-        <v>567.0161773118807</v>
+        <v>892.780395651399</v>
       </c>
       <c r="N24" t="n">
-        <v>902.5968569191501</v>
+        <v>1228.361075258668</v>
       </c>
       <c r="O24" t="n">
-        <v>1238.17753652642</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="P24" t="n">
-        <v>1238.17753652642</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="Q24" t="n">
         <v>1355.881533766745</v>
@@ -6093,25 +6093,25 @@
         <v>1355.881533766745</v>
       </c>
       <c r="S24" t="n">
-        <v>1190.636122308137</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="T24" t="n">
-        <v>1190.636122308137</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="U24" t="n">
-        <v>963.728888212476</v>
+        <v>1355.881533766745</v>
       </c>
       <c r="V24" t="n">
-        <v>963.728888212476</v>
+        <v>1309.083633455919</v>
       </c>
       <c r="W24" t="n">
-        <v>711.2143965458093</v>
+        <v>1056.569141789252</v>
       </c>
       <c r="X24" t="n">
-        <v>504.6874979513868</v>
+        <v>850.0422431948294</v>
       </c>
       <c r="Y24" t="n">
-        <v>504.6874979513868</v>
+        <v>644.3138074184799</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>177.6283039223242</v>
+        <v>322.5044855359894</v>
       </c>
       <c r="C25" t="n">
-        <v>177.6283039223242</v>
+        <v>322.5044855359894</v>
       </c>
       <c r="D25" t="n">
-        <v>27.1176306753349</v>
+        <v>322.5044855359894</v>
       </c>
       <c r="E25" t="n">
-        <v>27.1176306753349</v>
+        <v>174.0452691994246</v>
       </c>
       <c r="F25" t="n">
-        <v>27.1176306753349</v>
+        <v>174.0452691994246</v>
       </c>
       <c r="G25" t="n">
         <v>27.1176306753349</v>
@@ -6157,7 +6157,7 @@
         <v>200.4136480801002</v>
       </c>
       <c r="N25" t="n">
-        <v>290.7787458726836</v>
+        <v>290.7787458726835</v>
       </c>
       <c r="O25" t="n">
         <v>358.908943143614</v>
@@ -6178,19 +6178,19 @@
         <v>393.9836153698784</v>
       </c>
       <c r="U25" t="n">
-        <v>359.0295692548317</v>
+        <v>359.0295692548316</v>
       </c>
       <c r="V25" t="n">
-        <v>357.5125959916108</v>
+        <v>357.5125959916107</v>
       </c>
       <c r="W25" t="n">
-        <v>177.6283039223242</v>
+        <v>322.5044855359894</v>
       </c>
       <c r="X25" t="n">
-        <v>177.6283039223242</v>
+        <v>322.5044855359894</v>
       </c>
       <c r="Y25" t="n">
-        <v>177.6283039223242</v>
+        <v>322.5044855359894</v>
       </c>
     </row>
     <row r="26">
@@ -6209,52 +6209,52 @@
         <v>1083.107694716983</v>
       </c>
       <c r="E26" t="n">
-        <v>838.9121939670229</v>
+        <v>838.9121939670231</v>
       </c>
       <c r="F26" t="n">
-        <v>570.2966652117562</v>
+        <v>570.2966652117565</v>
       </c>
       <c r="G26" t="n">
-        <v>294.5895188596555</v>
+        <v>294.5895188596556</v>
       </c>
       <c r="H26" t="n">
-        <v>101.4106451426111</v>
+        <v>101.410645142611</v>
       </c>
       <c r="I26" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="J26" t="n">
-        <v>242.6307376531323</v>
+        <v>242.6307376531328</v>
       </c>
       <c r="K26" t="n">
-        <v>571.9083451915791</v>
+        <v>571.9083451915795</v>
       </c>
       <c r="L26" t="n">
-        <v>998.7048586340904</v>
+        <v>998.7048586340911</v>
       </c>
       <c r="M26" t="n">
-        <v>1473.039072864971</v>
+        <v>1473.039072864972</v>
       </c>
       <c r="N26" t="n">
-        <v>1937.266784602963</v>
+        <v>1937.266784602964</v>
       </c>
       <c r="O26" t="n">
-        <v>2337.294728097804</v>
+        <v>2337.294728097805</v>
       </c>
       <c r="P26" t="n">
-        <v>2662.276566415328</v>
+        <v>2662.276566415329</v>
       </c>
       <c r="Q26" t="n">
         <v>2863.998579996256</v>
       </c>
       <c r="R26" t="n">
-        <v>2897.111146747388</v>
+        <v>2897.111146747389</v>
       </c>
       <c r="S26" t="n">
-        <v>2844.393325775954</v>
+        <v>2844.393325775955</v>
       </c>
       <c r="T26" t="n">
-        <v>2764.35706367067</v>
+        <v>2764.357063670671</v>
       </c>
       <c r="U26" t="n">
         <v>2653.175187384282</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>675.1617792329602</v>
+        <v>609.6948161817195</v>
       </c>
       <c r="C27" t="n">
-        <v>502.4086641547773</v>
+        <v>436.9417011035367</v>
       </c>
       <c r="D27" t="n">
-        <v>354.8203575137212</v>
+        <v>289.3533944624806</v>
       </c>
       <c r="E27" t="n">
-        <v>340.0032426709466</v>
+        <v>274.536279619706</v>
       </c>
       <c r="F27" t="n">
-        <v>195.0474526875635</v>
+        <v>272.3729037906936</v>
       </c>
       <c r="G27" t="n">
-        <v>57.94222293494777</v>
+        <v>135.2676740380779</v>
       </c>
       <c r="H27" t="n">
-        <v>57.94222293494777</v>
+        <v>135.2676740380779</v>
       </c>
       <c r="I27" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="J27" t="n">
-        <v>92.36971765013733</v>
+        <v>92.36971765013732</v>
       </c>
       <c r="K27" t="n">
         <v>277.8174028813582</v>
@@ -6327,28 +6327,28 @@
         <v>2150.870825565503</v>
       </c>
       <c r="R27" t="n">
-        <v>2150.870825565503</v>
+        <v>2073.345981611942</v>
       </c>
       <c r="S27" t="n">
-        <v>2024.549843136901</v>
+        <v>1908.100570153333</v>
       </c>
       <c r="T27" t="n">
-        <v>1825.340219807649</v>
+        <v>1708.890946824082</v>
       </c>
       <c r="U27" t="n">
-        <v>1598.432985711988</v>
+        <v>1481.983712728421</v>
       </c>
       <c r="V27" t="n">
-        <v>1364.181742237589</v>
+        <v>1247.732469254022</v>
       </c>
       <c r="W27" t="n">
-        <v>1111.667250570922</v>
+        <v>995.217977587355</v>
       </c>
       <c r="X27" t="n">
-        <v>905.1403519764995</v>
+        <v>788.6910789929325</v>
       </c>
       <c r="Y27" t="n">
-        <v>842.2043303545206</v>
+        <v>633.9449531489092</v>
       </c>
     </row>
     <row r="28">
@@ -6361,7 +6361,7 @@
         <v>152.4096372882157</v>
       </c>
       <c r="C28" t="n">
-        <v>126.1752302999577</v>
+        <v>126.1752302999578</v>
       </c>
       <c r="D28" t="n">
         <v>118.4569712073392</v>
@@ -6373,31 +6373,31 @@
         <v>107.9472080180971</v>
       </c>
       <c r="G28" t="n">
-        <v>81.39894178682432</v>
+        <v>81.39894178682434</v>
       </c>
       <c r="H28" t="n">
-        <v>63.10078192537428</v>
+        <v>63.10078192537429</v>
       </c>
       <c r="I28" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494778</v>
       </c>
       <c r="J28" t="n">
         <v>126.9029897441795</v>
       </c>
       <c r="K28" t="n">
-        <v>140.1474354874099</v>
+        <v>231.4348898324317</v>
       </c>
       <c r="L28" t="n">
-        <v>352.8502263848077</v>
+        <v>304.1868356171307</v>
       </c>
       <c r="M28" t="n">
-        <v>580.1006973743423</v>
+        <v>391.4864614939665</v>
       </c>
       <c r="N28" t="n">
-        <v>670.4657951669257</v>
+        <v>481.8515592865499</v>
       </c>
       <c r="O28" t="n">
-        <v>829.8834467828777</v>
+        <v>689.932601670179</v>
       </c>
       <c r="P28" t="n">
         <v>864.9581190091421</v>
@@ -6421,13 +6421,13 @@
         <v>501.5079626688913</v>
       </c>
       <c r="W28" t="n">
-        <v>355.3179759268826</v>
+        <v>355.3179759268827</v>
       </c>
       <c r="X28" t="n">
         <v>269.6857840890218</v>
       </c>
       <c r="Y28" t="n">
-        <v>191.5199418113033</v>
+        <v>191.5199418113034</v>
       </c>
     </row>
     <row r="29">
@@ -6446,31 +6446,31 @@
         <v>1083.107694716983</v>
       </c>
       <c r="E29" t="n">
-        <v>838.9121939670231</v>
+        <v>838.9121939670233</v>
       </c>
       <c r="F29" t="n">
-        <v>570.2966652117565</v>
+        <v>570.2966652117567</v>
       </c>
       <c r="G29" t="n">
-        <v>294.5895188596558</v>
+        <v>294.589518859656</v>
       </c>
       <c r="H29" t="n">
         <v>101.4106451426111</v>
       </c>
       <c r="I29" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494779</v>
       </c>
       <c r="J29" t="n">
-        <v>242.6307376531327</v>
+        <v>242.6307376531328</v>
       </c>
       <c r="K29" t="n">
-        <v>571.9083451915792</v>
+        <v>571.9083451915795</v>
       </c>
       <c r="L29" t="n">
-        <v>998.7048586340908</v>
+        <v>998.7048586340911</v>
       </c>
       <c r="M29" t="n">
-        <v>1473.039072864971</v>
+        <v>1473.039072864972</v>
       </c>
       <c r="N29" t="n">
         <v>1937.266784602964</v>
@@ -6479,16 +6479,16 @@
         <v>2337.294728097805</v>
       </c>
       <c r="P29" t="n">
-        <v>2662.276566415328</v>
+        <v>2662.276566415329</v>
       </c>
       <c r="Q29" t="n">
         <v>2863.998579996256</v>
       </c>
       <c r="R29" t="n">
-        <v>2897.111146747388</v>
+        <v>2897.111146747389</v>
       </c>
       <c r="S29" t="n">
-        <v>2844.393325775954</v>
+        <v>2844.393325775955</v>
       </c>
       <c r="T29" t="n">
         <v>2764.35706367067</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>680.8489636347151</v>
+        <v>575.661056216833</v>
       </c>
       <c r="C30" t="n">
-        <v>508.0958485565324</v>
+        <v>402.9079411386501</v>
       </c>
       <c r="D30" t="n">
-        <v>360.5075419154762</v>
+        <v>398.1120486519647</v>
       </c>
       <c r="E30" t="n">
-        <v>202.8980129183309</v>
+        <v>383.2949338091901</v>
       </c>
       <c r="F30" t="n">
-        <v>57.94222293494777</v>
+        <v>381.1315579801777</v>
       </c>
       <c r="G30" t="n">
-        <v>57.94222293494777</v>
+        <v>244.026328227562</v>
       </c>
       <c r="H30" t="n">
-        <v>57.94222293494777</v>
+        <v>135.2676740380779</v>
       </c>
       <c r="I30" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494779</v>
       </c>
       <c r="J30" t="n">
         <v>92.36971765013733</v>
@@ -6564,28 +6564,28 @@
         <v>2150.870825565503</v>
       </c>
       <c r="R30" t="n">
-        <v>2150.870825565503</v>
+        <v>2090.294531579382</v>
       </c>
       <c r="S30" t="n">
-        <v>1985.625414106895</v>
+        <v>1925.049120120773</v>
       </c>
       <c r="T30" t="n">
-        <v>1786.415790777643</v>
+        <v>1725.839496791522</v>
       </c>
       <c r="U30" t="n">
-        <v>1559.508556681983</v>
+        <v>1498.932262695861</v>
       </c>
       <c r="V30" t="n">
-        <v>1325.257313207583</v>
+        <v>1264.681019221462</v>
       </c>
       <c r="W30" t="n">
-        <v>1117.354434972677</v>
+        <v>1012.166527554795</v>
       </c>
       <c r="X30" t="n">
-        <v>1053.619950532625</v>
+        <v>805.6396289603723</v>
       </c>
       <c r="Y30" t="n">
-        <v>847.8915147562756</v>
+        <v>599.9111931840227</v>
       </c>
     </row>
     <row r="31">
@@ -6598,7 +6598,7 @@
         <v>152.4096372882157</v>
       </c>
       <c r="C31" t="n">
-        <v>126.1752302999577</v>
+        <v>126.1752302999578</v>
       </c>
       <c r="D31" t="n">
         <v>118.4569712073392</v>
@@ -6610,31 +6610,31 @@
         <v>107.9472080180971</v>
       </c>
       <c r="G31" t="n">
-        <v>81.39894178682432</v>
+        <v>81.39894178682434</v>
       </c>
       <c r="H31" t="n">
-        <v>63.10078192537428</v>
+        <v>63.10078192537429</v>
       </c>
       <c r="I31" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494779</v>
       </c>
       <c r="J31" t="n">
-        <v>57.94222293494777</v>
+        <v>126.9029897441795</v>
       </c>
       <c r="K31" t="n">
-        <v>211.1375137908769</v>
+        <v>140.1474354874099</v>
       </c>
       <c r="L31" t="n">
-        <v>423.8403046882747</v>
+        <v>304.1868356171307</v>
       </c>
       <c r="M31" t="n">
-        <v>651.0907756778092</v>
+        <v>391.4864614939666</v>
       </c>
       <c r="N31" t="n">
-        <v>741.4558734703926</v>
+        <v>621.8024043992486</v>
       </c>
       <c r="O31" t="n">
-        <v>829.8834467828777</v>
+        <v>689.932601670179</v>
       </c>
       <c r="P31" t="n">
         <v>864.9581190091421</v>
@@ -6658,13 +6658,13 @@
         <v>501.5079626688913</v>
       </c>
       <c r="W31" t="n">
-        <v>355.3179759268826</v>
+        <v>355.3179759268827</v>
       </c>
       <c r="X31" t="n">
         <v>269.6857840890218</v>
       </c>
       <c r="Y31" t="n">
-        <v>191.5199418113033</v>
+        <v>191.5199418113034</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1528.421683007778</v>
+        <v>1528.421683007777</v>
       </c>
       <c r="C32" t="n">
         <v>1300.522081324832</v>
@@ -6683,49 +6683,49 @@
         <v>1083.107694716982</v>
       </c>
       <c r="E32" t="n">
-        <v>838.9121939670223</v>
+        <v>838.9121939670222</v>
       </c>
       <c r="F32" t="n">
-        <v>570.2966652117557</v>
+        <v>570.2966652117559</v>
       </c>
       <c r="G32" t="n">
-        <v>294.5895188596557</v>
+        <v>294.5895188596551</v>
       </c>
       <c r="H32" t="n">
-        <v>101.4106451426111</v>
+        <v>101.4106451426112</v>
       </c>
       <c r="I32" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494779</v>
       </c>
       <c r="J32" t="n">
-        <v>242.6307376531323</v>
+        <v>242.6307376531322</v>
       </c>
       <c r="K32" t="n">
-        <v>571.9083451915791</v>
+        <v>571.9083451915787</v>
       </c>
       <c r="L32" t="n">
-        <v>998.7048586340907</v>
+        <v>998.7048586340902</v>
       </c>
       <c r="M32" t="n">
         <v>1473.039072864971</v>
       </c>
       <c r="N32" t="n">
-        <v>1937.266784602964</v>
+        <v>1937.266784602963</v>
       </c>
       <c r="O32" t="n">
-        <v>2337.294728097805</v>
+        <v>2337.294728097804</v>
       </c>
       <c r="P32" t="n">
         <v>2662.276566415328</v>
       </c>
       <c r="Q32" t="n">
-        <v>2863.998579996256</v>
+        <v>2863.998579996257</v>
       </c>
       <c r="R32" t="n">
-        <v>2897.111146747388</v>
+        <v>2897.111146747389</v>
       </c>
       <c r="S32" t="n">
-        <v>2844.393325775954</v>
+        <v>2844.393325775955</v>
       </c>
       <c r="T32" t="n">
         <v>2764.35706367067</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>701.5049204037641</v>
+        <v>532.3693650785897</v>
       </c>
       <c r="C33" t="n">
-        <v>671.5442194799519</v>
+        <v>359.6162500004069</v>
       </c>
       <c r="D33" t="n">
-        <v>540.9044628063355</v>
+        <v>212.0279433593508</v>
       </c>
       <c r="E33" t="n">
-        <v>383.2949338091902</v>
+        <v>197.2108285165761</v>
       </c>
       <c r="F33" t="n">
-        <v>381.1315579801777</v>
+        <v>195.0474526875635</v>
       </c>
       <c r="G33" t="n">
-        <v>244.026328227562</v>
+        <v>57.94222293494779</v>
       </c>
       <c r="H33" t="n">
-        <v>135.2676740380779</v>
+        <v>57.94222293494779</v>
       </c>
       <c r="I33" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494779</v>
       </c>
       <c r="J33" t="n">
         <v>92.36971765013733</v>
@@ -6804,25 +6804,25 @@
         <v>2073.345981611942</v>
       </c>
       <c r="S33" t="n">
-        <v>1908.100570153334</v>
+        <v>1908.100570153333</v>
       </c>
       <c r="T33" t="n">
         <v>1708.890946824082</v>
       </c>
       <c r="U33" t="n">
-        <v>1624.776126882792</v>
+        <v>1481.983712728421</v>
       </c>
       <c r="V33" t="n">
-        <v>1390.524883408393</v>
+        <v>1247.732469254022</v>
       </c>
       <c r="W33" t="n">
-        <v>1138.010391741726</v>
+        <v>995.217977587355</v>
       </c>
       <c r="X33" t="n">
-        <v>931.4834931473034</v>
+        <v>905.1403519764997</v>
       </c>
       <c r="Y33" t="n">
-        <v>725.7550573709539</v>
+        <v>699.4119162001501</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.4096372882159</v>
+        <v>152.4096372882165</v>
       </c>
       <c r="C34" t="n">
-        <v>126.1752302999579</v>
+        <v>126.1752302999585</v>
       </c>
       <c r="D34" t="n">
-        <v>118.4569712073394</v>
+        <v>118.4569712073398</v>
       </c>
       <c r="E34" t="n">
-        <v>112.7901690251452</v>
+        <v>112.7901690251455</v>
       </c>
       <c r="F34" t="n">
-        <v>107.9472080180972</v>
+        <v>107.9472080180974</v>
       </c>
       <c r="G34" t="n">
-        <v>81.39894178682439</v>
+        <v>81.39894178682457</v>
       </c>
       <c r="H34" t="n">
-        <v>63.10078192537431</v>
+        <v>63.10078192537441</v>
       </c>
       <c r="I34" t="n">
-        <v>57.94222293494777</v>
+        <v>57.94222293494779</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9029897441795</v>
+        <v>126.9029897441794</v>
       </c>
       <c r="K34" t="n">
-        <v>140.1474354874099</v>
+        <v>280.0982806001084</v>
       </c>
       <c r="L34" t="n">
-        <v>245.3114428005069</v>
+        <v>492.801071497506</v>
       </c>
       <c r="M34" t="n">
-        <v>472.5619137900414</v>
+        <v>580.100697374342</v>
       </c>
       <c r="N34" t="n">
-        <v>562.9270115826248</v>
+        <v>670.4657951669253</v>
       </c>
       <c r="O34" t="n">
-        <v>771.0080539662539</v>
+        <v>738.5959924378557</v>
       </c>
       <c r="P34" t="n">
-        <v>946.033571305217</v>
+        <v>864.9581190091441</v>
       </c>
       <c r="Q34" t="n">
-        <v>946.033571305217</v>
+        <v>946.0335713052184</v>
       </c>
       <c r="R34" t="n">
-        <v>924.6888455984287</v>
+        <v>924.68884559843</v>
       </c>
       <c r="S34" t="n">
-        <v>847.1433695505491</v>
+        <v>847.1433695505503</v>
       </c>
       <c r="T34" t="n">
-        <v>760.3427346199339</v>
+        <v>760.3427346199351</v>
       </c>
       <c r="U34" t="n">
-        <v>614.2068122184999</v>
+        <v>614.2068122185009</v>
       </c>
       <c r="V34" t="n">
-        <v>501.5079626688916</v>
+        <v>501.5079626688926</v>
       </c>
       <c r="W34" t="n">
-        <v>355.3179759268829</v>
+        <v>355.3179759268838</v>
       </c>
       <c r="X34" t="n">
-        <v>269.685784089022</v>
+        <v>269.6857840890228</v>
       </c>
       <c r="Y34" t="n">
-        <v>191.5199418113036</v>
+        <v>191.5199418113043</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>973.1799653781345</v>
+        <v>973.1799653781343</v>
       </c>
       <c r="C35" t="n">
         <v>826.655098892551</v>
       </c>
       <c r="D35" t="n">
-        <v>690.6154474820627</v>
+        <v>690.6154474820628</v>
       </c>
       <c r="E35" t="n">
-        <v>527.7946819294642</v>
+        <v>527.7946819294643</v>
       </c>
       <c r="F35" t="n">
-        <v>340.5538883715592</v>
+        <v>340.5538883715594</v>
       </c>
       <c r="G35" t="n">
-        <v>146.2214772168202</v>
+        <v>146.2214772168201</v>
       </c>
       <c r="H35" t="n">
-        <v>34.41733869713713</v>
+        <v>34.41733869713712</v>
       </c>
       <c r="I35" t="n">
-        <v>34.41733869713713</v>
+        <v>34.41733869713712</v>
       </c>
       <c r="J35" t="n">
         <v>79.15500830262295</v>
       </c>
       <c r="K35" t="n">
-        <v>268.481770728371</v>
+        <v>268.4817707283711</v>
       </c>
       <c r="L35" t="n">
-        <v>555.3274390581838</v>
+        <v>555.3274390581839</v>
       </c>
       <c r="M35" t="n">
-        <v>889.7108081763656</v>
+        <v>889.7108081763657</v>
       </c>
       <c r="N35" t="n">
         <v>1213.987674801659</v>
@@ -6968,7 +6968,7 @@
         <v>1720.866934856856</v>
       </c>
       <c r="U35" t="n">
-        <v>1691.059793767831</v>
+        <v>1691.05979376783</v>
       </c>
       <c r="V35" t="n">
         <v>1583.375204207927</v>
@@ -6980,7 +6980,7 @@
         <v>1303.031001768236</v>
       </c>
       <c r="Y35" t="n">
-        <v>1136.605149351044</v>
+        <v>1136.605149351043</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>512.3682894135213</v>
+        <v>185.1258247156275</v>
       </c>
       <c r="C36" t="n">
-        <v>339.6151743353386</v>
+        <v>111.7427898002672</v>
       </c>
       <c r="D36" t="n">
-        <v>192.0268676942824</v>
+        <v>111.7427898002672</v>
       </c>
       <c r="E36" t="n">
-        <v>34.41733869713713</v>
+        <v>111.7427898002672</v>
       </c>
       <c r="F36" t="n">
-        <v>34.41733869713713</v>
+        <v>111.7427898002672</v>
       </c>
       <c r="G36" t="n">
-        <v>34.41733869713713</v>
+        <v>111.7427898002672</v>
       </c>
       <c r="H36" t="n">
-        <v>34.41733869713713</v>
+        <v>111.7427898002672</v>
       </c>
       <c r="I36" t="n">
-        <v>34.41733869713713</v>
+        <v>34.41733869713712</v>
       </c>
       <c r="J36" t="n">
-        <v>68.84483341232669</v>
+        <v>68.84483341232666</v>
       </c>
       <c r="K36" t="n">
-        <v>254.2925186435476</v>
+        <v>68.84483341232666</v>
       </c>
       <c r="L36" t="n">
-        <v>254.2925186435476</v>
+        <v>379.0517388347109</v>
       </c>
       <c r="M36" t="n">
-        <v>669.0895398317145</v>
+        <v>793.8487600228779</v>
       </c>
       <c r="N36" t="n">
-        <v>1013.991634858654</v>
+        <v>1219.76332639995</v>
       </c>
       <c r="O36" t="n">
-        <v>1349.951815199218</v>
+        <v>1467.655812439543</v>
       </c>
       <c r="P36" t="n">
-        <v>1603.162937616531</v>
+        <v>1720.866934856856</v>
       </c>
       <c r="Q36" t="n">
         <v>1720.866934856856</v>
       </c>
       <c r="R36" t="n">
-        <v>1720.866934856856</v>
+        <v>1643.342090903295</v>
       </c>
       <c r="S36" t="n">
-        <v>1631.777780573922</v>
+        <v>1478.096679444687</v>
       </c>
       <c r="T36" t="n">
-        <v>1432.568157244671</v>
+        <v>1478.096679444687</v>
       </c>
       <c r="U36" t="n">
-        <v>1205.66092314901</v>
+        <v>1251.189445349026</v>
       </c>
       <c r="V36" t="n">
-        <v>971.4096796746105</v>
+        <v>1016.938201874627</v>
       </c>
       <c r="W36" t="n">
-        <v>718.8951880079438</v>
+        <v>764.42371020796</v>
       </c>
       <c r="X36" t="n">
-        <v>512.3682894135213</v>
+        <v>557.8968116135375</v>
       </c>
       <c r="Y36" t="n">
-        <v>512.3682894135213</v>
+        <v>352.1683758371879</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.41733869713713</v>
+        <v>230.6994139169618</v>
       </c>
       <c r="C37" t="n">
-        <v>34.41733869713713</v>
+        <v>230.6994139169618</v>
       </c>
       <c r="D37" t="n">
-        <v>34.41733869713713</v>
+        <v>230.6994139169618</v>
       </c>
       <c r="E37" t="n">
-        <v>34.41733869713713</v>
+        <v>230.6994139169618</v>
       </c>
       <c r="F37" t="n">
-        <v>34.41733869713713</v>
+        <v>203.7580190827806</v>
       </c>
       <c r="G37" t="n">
-        <v>34.41733869713713</v>
+        <v>34.41733869713712</v>
       </c>
       <c r="H37" t="n">
-        <v>34.41733869713713</v>
+        <v>34.41733869713712</v>
       </c>
       <c r="I37" t="n">
-        <v>34.41733869713713</v>
+        <v>34.41733869713712</v>
       </c>
       <c r="J37" t="n">
-        <v>34.41733869713713</v>
+        <v>34.41733869713712</v>
       </c>
       <c r="K37" t="n">
-        <v>47.66178444036753</v>
+        <v>47.66178444036751</v>
       </c>
       <c r="L37" t="n">
-        <v>120.4137302250666</v>
+        <v>120.4137302250665</v>
       </c>
       <c r="M37" t="n">
-        <v>207.7133561019025</v>
+        <v>207.7133561019024</v>
       </c>
       <c r="N37" t="n">
         <v>298.0784538944858</v>
@@ -7123,22 +7123,22 @@
         <v>401.2833233916806</v>
       </c>
       <c r="T37" t="n">
-        <v>199.5753484386024</v>
+        <v>395.8574236584271</v>
       </c>
       <c r="U37" t="n">
-        <v>134.81416123453</v>
+        <v>331.0962364543547</v>
       </c>
       <c r="V37" t="n">
-        <v>103.4900468822834</v>
+        <v>299.772122102108</v>
       </c>
       <c r="W37" t="n">
-        <v>38.67479533763637</v>
+        <v>234.956870557461</v>
       </c>
       <c r="X37" t="n">
-        <v>34.41733869713713</v>
+        <v>230.6994139169618</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.41733869713713</v>
+        <v>230.6994139169618</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>973.1799653781341</v>
+        <v>973.1799653781345</v>
       </c>
       <c r="C38" t="n">
-        <v>826.6550988925508</v>
+        <v>826.655098892551</v>
       </c>
       <c r="D38" t="n">
-        <v>690.6154474820626</v>
+        <v>690.6154474820628</v>
       </c>
       <c r="E38" t="n">
-        <v>527.7946819294641</v>
+        <v>527.7946819294643</v>
       </c>
       <c r="F38" t="n">
-        <v>340.5538883715592</v>
+        <v>340.5538883715594</v>
       </c>
       <c r="G38" t="n">
         <v>146.2214772168201</v>
@@ -7172,13 +7172,13 @@
         <v>34.41733869713712</v>
       </c>
       <c r="J38" t="n">
-        <v>79.15500830262295</v>
+        <v>79.15500830262293</v>
       </c>
       <c r="K38" t="n">
         <v>268.481770728371</v>
       </c>
       <c r="L38" t="n">
-        <v>555.3274390581839</v>
+        <v>555.3274390581838</v>
       </c>
       <c r="M38" t="n">
         <v>889.7108081763656</v>
@@ -7211,13 +7211,13 @@
         <v>1583.375204207927</v>
       </c>
       <c r="W38" t="n">
-        <v>1453.471528306573</v>
+        <v>1453.471528306574</v>
       </c>
       <c r="X38" t="n">
         <v>1303.031001768236</v>
       </c>
       <c r="Y38" t="n">
-        <v>1136.605149351043</v>
+        <v>1136.605149351044</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>356.8900486213334</v>
+        <v>593.3296185082058</v>
       </c>
       <c r="C39" t="n">
-        <v>184.1369335431506</v>
+        <v>593.3296185082058</v>
       </c>
       <c r="D39" t="n">
-        <v>184.1369335431506</v>
+        <v>445.7413118671496</v>
       </c>
       <c r="E39" t="n">
-        <v>184.1369335431506</v>
+        <v>288.1317828700043</v>
       </c>
       <c r="F39" t="n">
         <v>143.1759928866212</v>
@@ -7251,22 +7251,22 @@
         <v>34.41733869713712</v>
       </c>
       <c r="J39" t="n">
-        <v>34.41733869713712</v>
+        <v>68.84483341232666</v>
       </c>
       <c r="K39" t="n">
-        <v>116.2842642883431</v>
+        <v>68.84483341232666</v>
       </c>
       <c r="L39" t="n">
-        <v>426.4911697107274</v>
+        <v>173.280047293415</v>
       </c>
       <c r="M39" t="n">
-        <v>841.2881908988943</v>
+        <v>588.0770684815819</v>
       </c>
       <c r="N39" t="n">
-        <v>1267.202757275966</v>
+        <v>1013.991634858654</v>
       </c>
       <c r="O39" t="n">
-        <v>1603.16293761653</v>
+        <v>1349.951815199218</v>
       </c>
       <c r="P39" t="n">
         <v>1603.16293761653</v>
@@ -7275,28 +7275,28 @@
         <v>1720.866934856856</v>
       </c>
       <c r="R39" t="n">
-        <v>1643.342090903295</v>
+        <v>1694.300396093224</v>
       </c>
       <c r="S39" t="n">
-        <v>1643.342090903295</v>
+        <v>1694.300396093224</v>
       </c>
       <c r="T39" t="n">
-        <v>1444.132467574043</v>
+        <v>1495.090772763972</v>
       </c>
       <c r="U39" t="n">
-        <v>1217.225233478382</v>
+        <v>1268.183538668311</v>
       </c>
       <c r="V39" t="n">
-        <v>982.9739900039831</v>
+        <v>1033.932295193912</v>
       </c>
       <c r="W39" t="n">
-        <v>730.4594983373164</v>
+        <v>1005.584952878978</v>
       </c>
       <c r="X39" t="n">
-        <v>523.9325997428939</v>
+        <v>799.0580542845554</v>
       </c>
       <c r="Y39" t="n">
-        <v>523.9325997428939</v>
+        <v>593.3296185082058</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.79669523950338</v>
+        <v>230.6994139169618</v>
       </c>
       <c r="C40" t="n">
-        <v>48.79669523950338</v>
+        <v>230.6994139169618</v>
       </c>
       <c r="D40" t="n">
-        <v>48.79669523950338</v>
+        <v>230.6994139169618</v>
       </c>
       <c r="E40" t="n">
-        <v>48.79669523950338</v>
+        <v>230.6994139169618</v>
       </c>
       <c r="F40" t="n">
-        <v>48.79669523950338</v>
+        <v>230.6994139169618</v>
       </c>
       <c r="G40" t="n">
-        <v>48.79669523950338</v>
+        <v>106.8488031430783</v>
       </c>
       <c r="H40" t="n">
-        <v>48.79669523950338</v>
+        <v>106.8488031430783</v>
       </c>
       <c r="I40" t="n">
-        <v>48.79669523950338</v>
+        <v>106.8488031430783</v>
       </c>
       <c r="J40" t="n">
         <v>34.41733869713712</v>
       </c>
       <c r="K40" t="n">
-        <v>47.66178444036752</v>
+        <v>47.66178444036751</v>
       </c>
       <c r="L40" t="n">
-        <v>120.4137302250666</v>
+        <v>120.4137302250665</v>
       </c>
       <c r="M40" t="n">
-        <v>207.7133561019025</v>
+        <v>207.7133561019024</v>
       </c>
       <c r="N40" t="n">
         <v>298.0784538944858</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>981.5385932592719</v>
+        <v>981.538593259272</v>
       </c>
       <c r="C41" t="n">
-        <v>833.6752536816107</v>
+        <v>833.6752536816109</v>
       </c>
       <c r="D41" t="n">
-        <v>696.2971291790448</v>
+        <v>696.2971291790452</v>
       </c>
       <c r="E41" t="n">
-        <v>532.1378905343685</v>
+        <v>532.137890534369</v>
       </c>
       <c r="F41" t="n">
-        <v>343.558623884386</v>
+        <v>343.5586238843866</v>
       </c>
       <c r="G41" t="n">
         <v>147.8877396375698</v>
@@ -7409,37 +7409,37 @@
         <v>34.74512802580917</v>
       </c>
       <c r="J41" t="n">
-        <v>95.5444747362254</v>
+        <v>79.48279763129499</v>
       </c>
       <c r="K41" t="n">
-        <v>284.8712371619735</v>
+        <v>268.809560057043</v>
       </c>
       <c r="L41" t="n">
-        <v>571.7169054917863</v>
+        <v>555.6552283868559</v>
       </c>
       <c r="M41" t="n">
-        <v>906.100274609968</v>
+        <v>890.0385975050376</v>
       </c>
       <c r="N41" t="n">
-        <v>1230.377141235262</v>
+        <v>1214.315464130331</v>
       </c>
       <c r="O41" t="n">
-        <v>1490.454239617404</v>
+        <v>1474.392562512474</v>
       </c>
       <c r="P41" t="n">
-        <v>1675.48523282223</v>
+        <v>1659.423555717299</v>
       </c>
       <c r="Q41" t="n">
-        <v>1737.256401290459</v>
+        <v>1721.194724185528</v>
       </c>
       <c r="R41" t="n">
-        <v>1737.256401290459</v>
+        <v>1721.194724185528</v>
       </c>
       <c r="S41" t="n">
         <v>1737.256401290459</v>
       </c>
       <c r="T41" t="n">
-        <v>1737.256401290458</v>
+        <v>1737.256401290459</v>
       </c>
       <c r="U41" t="n">
         <v>1706.110787109355</v>
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>378.4387623155686</v>
+        <v>657.6518687255766</v>
       </c>
       <c r="C42" t="n">
-        <v>378.4387623155686</v>
+        <v>484.8987536473938</v>
       </c>
       <c r="D42" t="n">
-        <v>378.4387623155686</v>
+        <v>337.3104470063377</v>
       </c>
       <c r="E42" t="n">
-        <v>220.8292333184233</v>
+        <v>179.7009180091923</v>
       </c>
       <c r="F42" t="n">
-        <v>220.8292333184233</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="G42" t="n">
-        <v>220.8292333184233</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="H42" t="n">
-        <v>112.0705791289393</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="I42" t="n">
         <v>34.74512802580917</v>
       </c>
       <c r="J42" t="n">
-        <v>69.17262274099873</v>
+        <v>69.17262274099872</v>
       </c>
       <c r="K42" t="n">
         <v>254.6203079722196</v>
@@ -7497,7 +7497,7 @@
         <v>564.8272133946039</v>
       </c>
       <c r="M42" t="n">
-        <v>600.410141972868</v>
+        <v>979.6242345827708</v>
       </c>
       <c r="N42" t="n">
         <v>1030.381101292257</v>
@@ -7518,22 +7518,22 @@
         <v>1737.256401290459</v>
       </c>
       <c r="T42" t="n">
-        <v>1538.046777961207</v>
+        <v>1737.256401290459</v>
       </c>
       <c r="U42" t="n">
-        <v>1311.139543865546</v>
+        <v>1510.349167194798</v>
       </c>
       <c r="V42" t="n">
-        <v>1076.888300391147</v>
+        <v>1489.464245884576</v>
       </c>
       <c r="W42" t="n">
-        <v>824.3738087244802</v>
+        <v>1236.949754217909</v>
       </c>
       <c r="X42" t="n">
-        <v>617.8469101300577</v>
+        <v>1030.422855623487</v>
       </c>
       <c r="Y42" t="n">
-        <v>545.4813134371291</v>
+        <v>824.6944198471371</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.43211910778751</v>
+        <v>224.3348377852462</v>
       </c>
       <c r="C43" t="n">
-        <v>42.43211910778751</v>
+        <v>224.3348377852462</v>
       </c>
       <c r="D43" t="n">
-        <v>42.43211910778751</v>
+        <v>224.3348377852462</v>
       </c>
       <c r="E43" t="n">
-        <v>42.43211910778751</v>
+        <v>224.3348377852462</v>
       </c>
       <c r="F43" t="n">
-        <v>42.43211910778751</v>
+        <v>76.69946262382751</v>
       </c>
       <c r="G43" t="n">
-        <v>42.43211910778751</v>
+        <v>76.69946262382751</v>
       </c>
       <c r="H43" t="n">
-        <v>34.74512802580917</v>
+        <v>76.69946262382751</v>
       </c>
       <c r="I43" t="n">
-        <v>34.74512802580917</v>
+        <v>76.69946262382751</v>
       </c>
       <c r="J43" t="n">
         <v>34.74512802580917</v>
@@ -7600,19 +7600,19 @@
         <v>394.8467398950216</v>
       </c>
       <c r="U43" t="n">
-        <v>328.7470795988716</v>
+        <v>328.7470795988717</v>
       </c>
       <c r="V43" t="n">
-        <v>296.0844921545473</v>
+        <v>296.0844921545475</v>
       </c>
       <c r="W43" t="n">
-        <v>229.9307675178227</v>
+        <v>229.930767517823</v>
       </c>
       <c r="X43" t="n">
-        <v>224.3348377852459</v>
+        <v>224.3348377852462</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.3348377852459</v>
+        <v>224.3348377852462</v>
       </c>
     </row>
     <row r="44">
@@ -7646,31 +7646,31 @@
         <v>34.74512802580917</v>
       </c>
       <c r="J44" t="n">
-        <v>79.482797631295</v>
+        <v>79.48279763129499</v>
       </c>
       <c r="K44" t="n">
-        <v>268.8095600570431</v>
+        <v>268.809560057043</v>
       </c>
       <c r="L44" t="n">
-        <v>571.7169054917863</v>
+        <v>555.6552283868559</v>
       </c>
       <c r="M44" t="n">
-        <v>906.100274609968</v>
+        <v>890.0385975050376</v>
       </c>
       <c r="N44" t="n">
-        <v>1230.377141235262</v>
+        <v>1214.315464130331</v>
       </c>
       <c r="O44" t="n">
-        <v>1490.454239617404</v>
+        <v>1474.392562512474</v>
       </c>
       <c r="P44" t="n">
-        <v>1675.48523282223</v>
+        <v>1659.423555717299</v>
       </c>
       <c r="Q44" t="n">
-        <v>1737.256401290459</v>
+        <v>1721.194724185528</v>
       </c>
       <c r="R44" t="n">
-        <v>1737.256401290459</v>
+        <v>1721.194724185528</v>
       </c>
       <c r="S44" t="n">
         <v>1737.256401290459</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>574.2862780471401</v>
+        <v>980.8412037708065</v>
       </c>
       <c r="C45" t="n">
-        <v>562.2242047505238</v>
+        <v>808.0880886926236</v>
       </c>
       <c r="D45" t="n">
-        <v>414.6358981094677</v>
+        <v>660.4997820515675</v>
       </c>
       <c r="E45" t="n">
-        <v>257.0263691123224</v>
+        <v>502.8902530544223</v>
       </c>
       <c r="F45" t="n">
-        <v>112.0705791289393</v>
+        <v>357.9344630710391</v>
       </c>
       <c r="G45" t="n">
-        <v>112.0705791289393</v>
+        <v>220.8292333184233</v>
       </c>
       <c r="H45" t="n">
         <v>112.0705791289393</v>
@@ -7728,49 +7728,49 @@
         <v>34.74512802580917</v>
       </c>
       <c r="K45" t="n">
-        <v>220.1928132570301</v>
+        <v>34.74512802580917</v>
       </c>
       <c r="L45" t="n">
-        <v>530.3997186794143</v>
+        <v>344.9520334481934</v>
       </c>
       <c r="M45" t="n">
-        <v>853.6212643901807</v>
+        <v>759.7490546363604</v>
       </c>
       <c r="N45" t="n">
-        <v>1283.592223709569</v>
+        <v>1189.720013955749</v>
       </c>
       <c r="O45" t="n">
-        <v>1619.552404050133</v>
+        <v>1525.680194296313</v>
       </c>
       <c r="P45" t="n">
-        <v>1619.552404050133</v>
+        <v>1737.256401290459</v>
       </c>
       <c r="Q45" t="n">
         <v>1737.256401290459</v>
       </c>
       <c r="R45" t="n">
-        <v>1659.731557336898</v>
+        <v>1737.256401290459</v>
       </c>
       <c r="S45" t="n">
-        <v>1494.486145878289</v>
+        <v>1737.256401290459</v>
       </c>
       <c r="T45" t="n">
-        <v>1494.486145878289</v>
+        <v>1737.256401290459</v>
       </c>
       <c r="U45" t="n">
-        <v>1267.578911782628</v>
+        <v>1510.349167194798</v>
       </c>
       <c r="V45" t="n">
-        <v>1033.327668308229</v>
+        <v>1276.097923720399</v>
       </c>
       <c r="W45" t="n">
-        <v>780.8131766415626</v>
+        <v>1147.883754892367</v>
       </c>
       <c r="X45" t="n">
-        <v>574.2862780471401</v>
+        <v>1147.883754892367</v>
       </c>
       <c r="Y45" t="n">
-        <v>574.2862780471401</v>
+        <v>1147.883754892367</v>
       </c>
     </row>
     <row r="46">
@@ -7828,22 +7828,22 @@
         <v>401.6111127203527</v>
       </c>
       <c r="R46" t="n">
-        <v>401.6111127203527</v>
+        <v>237.4739728591937</v>
       </c>
       <c r="S46" t="n">
-        <v>401.6111127203527</v>
+        <v>237.4739728591937</v>
       </c>
       <c r="T46" t="n">
-        <v>394.8467398950216</v>
+        <v>205.2570301355845</v>
       </c>
       <c r="U46" t="n">
-        <v>328.7470795988717</v>
+        <v>139.1573698394346</v>
       </c>
       <c r="V46" t="n">
-        <v>296.0844921545476</v>
+        <v>106.4947823951104</v>
       </c>
       <c r="W46" t="n">
-        <v>229.9307675178231</v>
+        <v>40.34105775838592</v>
       </c>
       <c r="X46" t="n">
         <v>34.74512802580917</v>
@@ -8696,13 +8696,13 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M11" t="n">
-        <v>433.7477854961661</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N11" t="n">
         <v>127.2884108578639</v>
       </c>
       <c r="O11" t="n">
-        <v>396.0321885132552</v>
+        <v>362.2858991768754</v>
       </c>
       <c r="P11" t="n">
         <v>334.6706564983419</v>
@@ -8766,7 +8766,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>96.35942956696503</v>
       </c>
       <c r="K12" t="n">
         <v>87.72295232013141</v>
@@ -8775,19 +8775,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>404.3167596526284</v>
+        <v>404.3167596526285</v>
       </c>
       <c r="N12" t="n">
-        <v>369.0150063515437</v>
+        <v>52.88556823104143</v>
       </c>
       <c r="O12" t="n">
         <v>409.2334779737637</v>
       </c>
       <c r="P12" t="n">
-        <v>75.4324688629965</v>
+        <v>307.4442276651795</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.58745273990363</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8927,7 +8927,7 @@
         <v>130.6709145208902</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1112290740114</v>
+        <v>270.2972272661634</v>
       </c>
       <c r="L14" t="n">
         <v>434.3676631324684</v>
@@ -8936,16 +8936,16 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N14" t="n">
-        <v>401.4358265594926</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O14" t="n">
-        <v>133.3280487333133</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P14" t="n">
-        <v>334.6706564983419</v>
+        <v>147.7706633621548</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.8075902863009</v>
+        <v>158.4124706214232</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9006,13 +9006,13 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>87.72295232013141</v>
       </c>
       <c r="L15" t="n">
-        <v>139.8207660352319</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>65.3463762109424</v>
+        <v>262.5828878260652</v>
       </c>
       <c r="N15" t="n">
         <v>391.8559516727275</v>
@@ -9021,7 +9021,7 @@
         <v>409.2334779737637</v>
       </c>
       <c r="P15" t="n">
-        <v>331.2012793855346</v>
+        <v>75.43246886299653</v>
       </c>
       <c r="Q15" t="n">
         <v>218.4803792452831</v>
@@ -9170,16 +9170,16 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M17" t="n">
-        <v>467.4940748325458</v>
+        <v>433.7477854961661</v>
       </c>
       <c r="N17" t="n">
-        <v>454.8408013884635</v>
+        <v>127.2884108578639</v>
       </c>
       <c r="O17" t="n">
-        <v>133.3280487333133</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P17" t="n">
-        <v>236.0761164113044</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
         <v>220.8075902863009</v>
@@ -9240,28 +9240,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>96.35942956696503</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
-        <v>385.6739591155975</v>
+        <v>72.33365060813873</v>
       </c>
       <c r="M18" t="n">
-        <v>404.3167596526284</v>
+        <v>404.3167596526285</v>
       </c>
       <c r="N18" t="n">
-        <v>391.8559516727275</v>
+        <v>155.1479308451948</v>
       </c>
       <c r="O18" t="n">
-        <v>199.0716384796295</v>
+        <v>409.2334779737637</v>
       </c>
       <c r="P18" t="n">
-        <v>75.4324688629965</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.58745273990363</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.8604797789567</v>
+        <v>130.6709145208902</v>
       </c>
       <c r="K20" t="n">
-        <v>145.8720751086093</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L20" t="n">
         <v>434.3676631324684</v>
       </c>
       <c r="M20" t="n">
-        <v>297.4345489309688</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N20" t="n">
         <v>454.8408013884635</v>
       </c>
       <c r="O20" t="n">
-        <v>396.0321885132552</v>
+        <v>329.2181867054076</v>
       </c>
       <c r="P20" t="n">
-        <v>334.6706564983419</v>
+        <v>147.7706633621548</v>
       </c>
       <c r="Q20" t="n">
-        <v>220.8075902863009</v>
+        <v>158.4124706214232</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9483,22 +9483,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>72.3336506081387</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>404.3167596526285</v>
+        <v>65.34637621094241</v>
       </c>
       <c r="N21" t="n">
         <v>391.8559516727275</v>
       </c>
       <c r="O21" t="n">
-        <v>409.2334779737637</v>
+        <v>163.3802848933982</v>
       </c>
       <c r="P21" t="n">
-        <v>178.610937876321</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.58745273990363</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9638,10 +9638,10 @@
         <v>130.6709145208902</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1112290740114</v>
+        <v>145.8720751086093</v>
       </c>
       <c r="L23" t="n">
-        <v>144.6245638094251</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M23" t="n">
         <v>467.4940748325458</v>
@@ -9653,10 +9653,10 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P23" t="n">
-        <v>334.6706564983419</v>
+        <v>272.1958155197099</v>
       </c>
       <c r="Q23" t="n">
-        <v>194.4415750004323</v>
+        <v>158.4124706214232</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9714,28 +9714,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>96.35942956696502</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>87.72295232013141</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7153344760947</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
         <v>404.3167596526287</v>
       </c>
       <c r="N24" t="n">
-        <v>391.8559516727278</v>
+        <v>391.8559516727277</v>
       </c>
       <c r="O24" t="n">
-        <v>409.2334779737639</v>
+        <v>199.0716384796301</v>
       </c>
       <c r="P24" t="n">
-        <v>75.4324688629965</v>
+        <v>75.43246886299653</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>99.58745273990364</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10665,25 +10665,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>275.0438464930818</v>
+        <v>87.72295232013141</v>
       </c>
       <c r="L36" t="n">
-        <v>72.3336506081387</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>401.2715228037076</v>
+        <v>483.1023019452554</v>
       </c>
       <c r="O36" t="n">
-        <v>409.6168120477987</v>
+        <v>320.6595450771217</v>
       </c>
       <c r="P36" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>218.4803792452831</v>
+        <v>99.58745273990364</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10899,25 +10899,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>96.35942956696502</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>170.4168165536728</v>
+        <v>87.72295232013141</v>
       </c>
       <c r="L39" t="n">
-        <v>385.6739591155975</v>
+        <v>177.8237656395411</v>
       </c>
       <c r="M39" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>483.1023019452554</v>
+        <v>483.1023019452555</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>75.4324688629965</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
         <v>218.4803792452831</v>
@@ -11145,10 +11145,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>101.2887283101991</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>487.1996685536561</v>
+        <v>104.1551305638553</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11373,16 +11373,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>96.35942956696502</v>
+        <v>96.35942956696503</v>
       </c>
       <c r="K45" t="n">
-        <v>275.0438464930818</v>
+        <v>87.72295232013141</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>391.8327860197974</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
         <v>487.1996685536561</v>
@@ -11391,10 +11391,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>75.4324688629965</v>
+        <v>289.1458092611234</v>
       </c>
       <c r="Q45" t="n">
-        <v>218.4803792452831</v>
+        <v>99.58745273990364</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239.2980585815354</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>222.566744269083</v>
+        <v>222.5667442690829</v>
       </c>
       <c r="D11" t="n">
         <v>212.1863813447387</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>262.8755120706811</v>
       </c>
       <c r="G11" t="n">
         <v>269.896213491547</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>39.97987658855401</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>16.52136723866082</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>76.18203808719856</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>107.0161961264908</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>206.1117655906949</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>226.4432477213097</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>72.99063855942219</v>
+        <v>242.2687203413761</v>
       </c>
     </row>
     <row r="12">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>239.2980585815354</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>222.566744269083</v>
       </c>
       <c r="D14" t="n">
-        <v>133.6153660384667</v>
+        <v>212.1863813447387</v>
       </c>
       <c r="E14" t="n">
-        <v>238.6996843454279</v>
+        <v>238.6996843454278</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>188.1932235828416</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>39.97987658855412</v>
+        <v>39.22491372078716</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.1367813646874</v>
+        <v>49.13678136468734</v>
       </c>
       <c r="T14" t="n">
-        <v>76.18203808719863</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>107.0161961264909</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>184.1148701126598</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>206.111765590695</v>
+        <v>206.1117655906949</v>
       </c>
       <c r="X14" t="n">
-        <v>226.4432477213098</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>242.2687203413762</v>
       </c>
     </row>
     <row r="15">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>916721.2479097028</v>
+        <v>916721.2479097029</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>916721.2479097026</v>
+        <v>916721.2479097028</v>
       </c>
     </row>
     <row r="7">
@@ -26320,40 +26320,40 @@
         <v>527901.6455412313</v>
       </c>
       <c r="E2" t="n">
-        <v>454050.8452155608</v>
+        <v>454050.845215561</v>
       </c>
       <c r="F2" t="n">
-        <v>454050.8452155605</v>
+        <v>454050.8452155609</v>
       </c>
       <c r="G2" t="n">
-        <v>529047.6155997091</v>
+        <v>529047.615599709</v>
       </c>
       <c r="H2" t="n">
-        <v>529047.615599709</v>
+        <v>529047.6155997092</v>
       </c>
       <c r="I2" t="n">
         <v>529047.615599709</v>
       </c>
       <c r="J2" t="n">
+        <v>529047.6155997092</v>
+      </c>
+      <c r="K2" t="n">
         <v>529047.615599709</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>529047.6155997093</v>
+      </c>
+      <c r="M2" t="n">
+        <v>529047.6155997093</v>
+      </c>
+      <c r="N2" t="n">
+        <v>529047.6155997092</v>
+      </c>
+      <c r="O2" t="n">
+        <v>529047.6155997089</v>
+      </c>
+      <c r="P2" t="n">
         <v>529047.6155997091</v>
-      </c>
-      <c r="L2" t="n">
-        <v>529047.6155997092</v>
-      </c>
-      <c r="M2" t="n">
-        <v>529047.6155997092</v>
-      </c>
-      <c r="N2" t="n">
-        <v>529047.6155997089</v>
-      </c>
-      <c r="O2" t="n">
-        <v>529047.6155997084</v>
-      </c>
-      <c r="P2" t="n">
-        <v>529047.615599709</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>85612.95690119272</v>
+        <v>85612.95690119268</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>128292.0053237458</v>
+        <v>128292.0053237459</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>85612.95690119271</v>
+        <v>85612.95690119259</v>
       </c>
       <c r="M3" t="n">
         <v>75640.37506652033</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27404.59979182174</v>
+        <v>27404.59979182179</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>443230.4832370162</v>
       </c>
       <c r="E4" t="n">
+        <v>324304.7658810631</v>
+      </c>
+      <c r="F4" t="n">
         <v>324304.765881063</v>
       </c>
-      <c r="F4" t="n">
-        <v>324304.7658810631</v>
-      </c>
       <c r="G4" t="n">
-        <v>390012.5802270993</v>
+        <v>390012.5802270992</v>
       </c>
       <c r="H4" t="n">
-        <v>390012.5802270993</v>
+        <v>390012.5802270994</v>
       </c>
       <c r="I4" t="n">
         <v>390012.5802270994</v>
@@ -26445,7 +26445,7 @@
         <v>386268.9668810163</v>
       </c>
       <c r="L4" t="n">
-        <v>386268.9668810162</v>
+        <v>386268.9668810163</v>
       </c>
       <c r="M4" t="n">
         <v>386358.0892739211</v>
@@ -26491,22 +26491,22 @@
         <v>44676.62256460899</v>
       </c>
       <c r="J5" t="n">
-        <v>58849.83301596967</v>
+        <v>58849.83301596968</v>
       </c>
       <c r="K5" t="n">
-        <v>58849.83301596967</v>
+        <v>58849.83301596969</v>
       </c>
       <c r="L5" t="n">
-        <v>58849.83301596967</v>
+        <v>58849.83301596968</v>
       </c>
       <c r="M5" t="n">
         <v>47743.60268240751</v>
       </c>
       <c r="N5" t="n">
-        <v>47743.6026824075</v>
+        <v>47743.60268240751</v>
       </c>
       <c r="O5" t="n">
-        <v>47881.32371876417</v>
+        <v>47881.32371876418</v>
       </c>
       <c r="P5" t="n">
         <v>47881.32371876418</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51043.56230421525</v>
+        <v>51039.15472706726</v>
       </c>
       <c r="C6" t="n">
-        <v>51043.56230421513</v>
+        <v>51039.15472706714</v>
       </c>
       <c r="D6" t="n">
-        <v>51043.56230421502</v>
+        <v>51039.15472706703</v>
       </c>
       <c r="E6" t="n">
-        <v>-230634.7565950657</v>
+        <v>-230923.2057119277</v>
       </c>
       <c r="F6" t="n">
-        <v>94066.20136204644</v>
+        <v>93777.75224518475</v>
       </c>
       <c r="G6" t="n">
         <v>8745.455906808093</v>
       </c>
       <c r="H6" t="n">
-        <v>94358.41280800069</v>
+        <v>94358.41280800087</v>
       </c>
       <c r="I6" t="n">
         <v>94358.41280800063</v>
       </c>
       <c r="J6" t="n">
-        <v>-44363.18962102274</v>
+        <v>-44363.18962102263</v>
       </c>
       <c r="K6" t="n">
-        <v>83928.81570272328</v>
+        <v>83928.81570272296</v>
       </c>
       <c r="L6" t="n">
-        <v>-1684.141198469391</v>
+        <v>-1684.141198469282</v>
       </c>
       <c r="M6" t="n">
-        <v>19305.54857686031</v>
+        <v>19305.54857686043</v>
       </c>
       <c r="N6" t="n">
-        <v>94945.92364338026</v>
+        <v>94945.92364338061</v>
       </c>
       <c r="O6" t="n">
-        <v>67444.02982444048</v>
+        <v>67444.02982444089</v>
       </c>
       <c r="P6" t="n">
-        <v>94848.6296162628</v>
+        <v>94848.62961626292</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>141.364490012827</v>
       </c>
       <c r="L2" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="M2" t="n">
         <v>221.925477858215</v>
@@ -26811,19 +26811,19 @@
         <v>338.9703834416863</v>
       </c>
       <c r="J4" t="n">
-        <v>724.2777866868471</v>
+        <v>724.2777866868472</v>
       </c>
       <c r="K4" t="n">
-        <v>724.2777866868471</v>
+        <v>724.2777866868473</v>
       </c>
       <c r="L4" t="n">
-        <v>724.2777866868471</v>
+        <v>724.2777866868473</v>
       </c>
       <c r="M4" t="n">
-        <v>430.2167337142141</v>
+        <v>430.216733714214</v>
       </c>
       <c r="N4" t="n">
-        <v>430.2167337142139</v>
+        <v>430.216733714214</v>
       </c>
       <c r="O4" t="n">
         <v>434.3141003226146</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.34829388633619</v>
+        <v>34.34829388633622</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>107.0161961264909</v>
+        <v>107.0161961264907</v>
       </c>
       <c r="M2" t="n">
-        <v>80.56098784538804</v>
+        <v>80.56098784538813</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.02320552517938</v>
+        <v>33.02320552517946</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>385.3074032451608</v>
+        <v>385.3074032451609</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>44.90933046905303</v>
+        <v>44.90933046905275</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.097366608400705</v>
+        <v>4.097366608400648</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.34829388633619</v>
+        <v>34.34829388633622</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>144.4183514098597</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -28175,10 +28175,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>144.4183514098597</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>7.6767765771055</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>135.7341774550896</v>
@@ -28187,7 +28187,7 @@
         <v>107.6710676475892</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.55219659209881</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28220,7 +28220,7 @@
         <v>144.4183514098597</v>
       </c>
       <c r="T12" t="n">
-        <v>144.4183514098597</v>
+        <v>75.54293139486639</v>
       </c>
       <c r="U12" t="n">
         <v>144.4183514098597</v>
@@ -28229,10 +28229,10 @@
         <v>144.4183514098597</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>144.4183514098597</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>144.4183514098597</v>
       </c>
       <c r="Y12" t="n">
         <v>144.4183514098597</v>
@@ -28269,28 +28269,28 @@
         <v>144.4183514098597</v>
       </c>
       <c r="J13" t="n">
-        <v>71.70714980148178</v>
+        <v>144.4183514098597</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>144.4183514098597</v>
       </c>
       <c r="L13" t="n">
-        <v>43.381337655377</v>
+        <v>30.14022980116437</v>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>144.4183514098597</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>144.4183514098597</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>144.4183514098597</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>59.47009375416589</v>
       </c>
       <c r="R13" t="n">
         <v>144.4183514098597</v>
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>31.02359300413704</v>
+        <v>144.4183514098596</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>144.4183514098596</v>
       </c>
       <c r="D15" t="n">
         <v>144.4183514098596</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>144.4183514098596</v>
       </c>
       <c r="F15" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.7341774550896</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>76.55219659209881</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>76.74959551402546</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>144.4183514098596</v>
@@ -28460,19 +28460,19 @@
         <v>144.4183514098596</v>
       </c>
       <c r="U15" t="n">
+        <v>48.59120765517108</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>144.4183514098596</v>
       </c>
-      <c r="V15" t="n">
-        <v>144.4183514098596</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
       <c r="X15" t="n">
-        <v>144.4183514098596</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>144.4183514098596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28506,28 +28506,28 @@
         <v>144.4183514098596</v>
       </c>
       <c r="J16" t="n">
-        <v>71.70714980148178</v>
+        <v>144.4183514098596</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>144.4183514098596</v>
+        <v>30.14022980116562</v>
       </c>
       <c r="M16" t="n">
         <v>144.4183514098596</v>
       </c>
       <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>144.4183514098596</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
       <c r="Q16" t="n">
-        <v>102.8514314095445</v>
+        <v>144.4183514098596</v>
       </c>
       <c r="R16" t="n">
         <v>144.4183514098596</v>
@@ -28643,10 +28643,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>77.90314264333801</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28658,10 +28658,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>107.6710676475892</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.55219659209881</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>76.74959551402546</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T18" t="n">
         <v>197.2175270959592</v>
@@ -28703,7 +28703,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>66.47897266579793</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
@@ -28722,7 +28722,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>149.0055665145194</v>
@@ -28731,10 +28731,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>21.37330867954338</v>
+        <v>167.647273581787</v>
       </c>
       <c r="H19" t="n">
         <v>159.4796682756625</v>
@@ -28743,7 +28743,7 @@
         <v>146.4714634133492</v>
       </c>
       <c r="J19" t="n">
-        <v>71.70714980148178</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>59.47009375416589</v>
+        <v>6.080810174801869</v>
       </c>
       <c r="R19" t="n">
         <v>162.4957684625474</v>
@@ -28880,22 +28880,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>64.22754096564499</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>57.9390260501596</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>135.7341774550896</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.6710676475892</v>
       </c>
       <c r="I21" t="n">
         <v>76.55219659209881</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>76.74959551402546</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>163.5929573440222</v>
@@ -28934,19 +28934,19 @@
         <v>197.2175270959592</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.6381617547043</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28965,10 +28965,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
-        <v>146.9746241731992</v>
+        <v>0.7006592709556969</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.647273581787</v>
@@ -29013,7 +29013,7 @@
         <v>227.297118594136</v>
       </c>
       <c r="U22" t="n">
-        <v>185.1419211566117</v>
+        <v>251.4345475363505</v>
       </c>
       <c r="V22" t="n">
         <v>251.4345475363505</v>
@@ -29022,7 +29022,7 @@
         <v>251.4345475363505</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -29117,16 +29117,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>86.26816110119881</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>135.7341774550896</v>
@@ -29135,7 +29135,7 @@
         <v>107.6710676475892</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>76.55219659209881</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,16 +29165,16 @@
         <v>76.74959551402546</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T24" t="n">
         <v>197.2175270959592</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>224.6381617547043</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>185.578809731937</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29199,16 +29199,16 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.647273581787</v>
+        <v>22.18891144293823</v>
       </c>
       <c r="H25" t="n">
         <v>159.4796682756625</v>
@@ -29256,7 +29256,7 @@
         <v>251.4345475363505</v>
       </c>
       <c r="W25" t="n">
-        <v>108.0071277388218</v>
+        <v>251.4345475363505</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -29302,7 +29302,7 @@
         <v>141.364490012827</v>
       </c>
       <c r="L26" t="n">
-        <v>141.3644900128268</v>
+        <v>141.364490012827</v>
       </c>
       <c r="M26" t="n">
         <v>141.364490012827</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>141.364490012827</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -29363,7 +29363,7 @@
         <v>141.364490012827</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>141.364490012827</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -29372,7 +29372,7 @@
         <v>107.6710676475892</v>
       </c>
       <c r="I27" t="n">
-        <v>76.55219659209881</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,10 +29399,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>76.74959551402546</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>38.5351847397055</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -29420,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>141.364490012827</v>
+        <v>50.47248683300302</v>
       </c>
     </row>
     <row r="28">
@@ -29457,22 +29457,22 @@
         <v>141.364490012827</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>92.20954984345629</v>
       </c>
       <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>141.364490012827</v>
       </c>
-      <c r="M28" t="n">
+      <c r="P28" t="n">
         <v>141.364490012827</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>92.20954984345624</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>141.364490012827</v>
@@ -29588,28 +29588,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>141.364490012827</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>141.364490012827</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>141.364490012827</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>141.364490012827</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7341774550896</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>107.6710676475892</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>76.55219659209881</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>76.74959551402546</v>
+        <v>16.7790644677656</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29651,10 +29651,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>44.16549729744267</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>141.364490012827</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29691,25 +29691,25 @@
         <v>141.364490012827</v>
       </c>
       <c r="J31" t="n">
-        <v>71.70714980148178</v>
+        <v>141.364490012827</v>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>92.2095498434563</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>141.364490012827</v>
       </c>
-      <c r="L31" t="n">
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>141.364490012827</v>
-      </c>
-      <c r="M31" t="n">
-        <v>141.364490012827</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>20.5024000419745</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>141.364490012827</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="C32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="D32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="E32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="F32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="G32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="H32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="I32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="J32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="K32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="L32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="M32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="N32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="O32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="P32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.3644900128264</v>
+        <v>141.3644900128287</v>
       </c>
       <c r="R32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="S32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="T32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="U32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="V32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="W32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="X32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
     </row>
     <row r="33">
@@ -29825,28 +29825,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>141.364490012827</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>141.364490012827</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>16.77906446776524</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="F33" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.6710676475892</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>76.55219659209881</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29882,7 +29882,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>141.364490012827</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29891,7 +29891,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>115.2847802537315</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="C34" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="D34" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="E34" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="F34" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="G34" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="H34" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="I34" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="J34" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="L34" t="n">
-        <v>32.73945608929084</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="M34" t="n">
-        <v>141.364490012827</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>141.364490012827</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>141.364490012827</v>
+        <v>92.20954984345857</v>
       </c>
       <c r="Q34" t="n">
-        <v>59.47009375416589</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="R34" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="S34" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="T34" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="U34" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="V34" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="W34" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="X34" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.364490012827</v>
+        <v>141.3644900128269</v>
       </c>
     </row>
     <row r="35">
@@ -30062,16 +30062,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>98.37637936119438</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
@@ -30083,7 +30083,7 @@
         <v>107.6710676475892</v>
       </c>
       <c r="I36" t="n">
-        <v>76.55219659209881</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,13 +30110,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>76.74959551402546</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>75.39469460391753</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30153,10 +30153,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>119.4870405239651</v>
       </c>
       <c r="G37" t="n">
-        <v>167.647273581787</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>159.4796682756625</v>
@@ -30195,7 +30195,7 @@
         <v>218.1345113002278</v>
       </c>
       <c r="T37" t="n">
-        <v>27.60622339058861</v>
+        <v>221.925477858215</v>
       </c>
       <c r="U37" t="n">
         <v>221.925477858215</v>
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>102.9549008335851</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>135.7341774550896</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>50.44872213802975</v>
       </c>
       <c r="S39" t="n">
         <v>163.5929573440222</v>
@@ -30362,13 +30362,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>221.925477858215</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -30393,7 +30393,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.647273581787</v>
+        <v>45.03516891564239</v>
       </c>
       <c r="H40" t="n">
         <v>159.4796682756625</v>
@@ -30402,7 +30402,7 @@
         <v>146.4714634133492</v>
       </c>
       <c r="J40" t="n">
-        <v>57.47158682453918</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30481,7 +30481,7 @@
         <v>184.3982279984137</v>
       </c>
       <c r="J41" t="n">
-        <v>16.22391626760647</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>107.9174528904707</v>
       </c>
       <c r="S41" t="n">
-        <v>193.555132774547</v>
+        <v>209.7790490421534</v>
       </c>
       <c r="T41" t="n">
         <v>220.6003894970582</v>
@@ -30539,25 +30539,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>135.7341774550896</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.6710676475892</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>76.55219659209881</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30590,13 +30590,13 @@
         <v>163.5929573440222</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>197.2175270959592</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>211.2326589425357</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>132.0292106925867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
         <v>167.3365529312023</v>
@@ -30627,19 +30627,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.647273581787</v>
       </c>
       <c r="H43" t="n">
-        <v>151.869547104504</v>
+        <v>159.4796682756625</v>
       </c>
       <c r="I43" t="n">
         <v>146.4714634133492</v>
       </c>
       <c r="J43" t="n">
-        <v>71.70714980148178</v>
+        <v>30.17235854944362</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30724,7 +30724,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>16.2239162676064</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>107.9174528904707</v>
       </c>
       <c r="S44" t="n">
-        <v>193.555132774547</v>
+        <v>209.7790490421534</v>
       </c>
       <c r="T44" t="n">
         <v>220.6003894970583</v>
@@ -30773,10 +30773,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>159.0841313637509</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30788,10 +30788,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7341774550896</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>107.6710676475892</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30821,10 +30821,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>76.74959551402546</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.5929573440222</v>
       </c>
       <c r="T45" t="n">
         <v>197.2175270959592</v>
@@ -30836,10 +30836,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>123.0573196102489</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
         <v>203.671151418586</v>
@@ -30900,13 +30900,13 @@
         <v>59.47009375416589</v>
       </c>
       <c r="R46" t="n">
-        <v>162.4957684625474</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>218.1345113002278</v>
       </c>
       <c r="T46" t="n">
-        <v>220.6003894970583</v>
+        <v>195.4023452977629</v>
       </c>
       <c r="U46" t="n">
         <v>220.6003894970583</v>
@@ -30918,7 +30918,7 @@
         <v>220.6003894970583</v>
       </c>
       <c r="X46" t="n">
-        <v>32.9065768352155</v>
+        <v>220.6003894970583</v>
       </c>
       <c r="Y46" t="n">
         <v>218.7486738677682</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242342</v>
       </c>
       <c r="H11" t="n">
-        <v>5.532328395452192</v>
+        <v>5.532328395452191</v>
       </c>
       <c r="I11" t="n">
-        <v>20.82607986971032</v>
+        <v>20.82607986971031</v>
       </c>
       <c r="J11" t="n">
         <v>45.8488423926289</v>
       </c>
       <c r="K11" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024674</v>
       </c>
       <c r="L11" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631242</v>
       </c>
       <c r="M11" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129939</v>
       </c>
       <c r="N11" t="n">
-        <v>96.38932614881227</v>
+        <v>96.38932614881226</v>
       </c>
       <c r="O11" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283128</v>
       </c>
       <c r="P11" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923298</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.33557700616508</v>
+        <v>58.33557700616507</v>
       </c>
       <c r="R11" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040633</v>
       </c>
       <c r="S11" t="n">
         <v>12.30981894899225</v>
@@ -31792,7 +31792,7 @@
         <v>2.364727699362087</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393873</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2890327499527404</v>
+        <v>0.2890327499527403</v>
       </c>
       <c r="H12" t="n">
-        <v>2.791447874543572</v>
+        <v>2.791447874543571</v>
       </c>
       <c r="I12" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372858</v>
       </c>
       <c r="J12" t="n">
         <v>27.307256433035</v>
@@ -31844,28 +31844,28 @@
         <v>46.6724506798686</v>
       </c>
       <c r="L12" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723863</v>
       </c>
       <c r="M12" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302545</v>
       </c>
       <c r="N12" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020854</v>
       </c>
       <c r="O12" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125571</v>
       </c>
       <c r="P12" t="n">
-        <v>55.19257836597549</v>
+        <v>55.19257836597547</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.89477699396735</v>
+        <v>36.89477699396734</v>
       </c>
       <c r="R12" t="n">
         <v>17.94538424706576</v>
       </c>
       <c r="S12" t="n">
-        <v>5.368656561622169</v>
+        <v>5.368656561622168</v>
       </c>
       <c r="T12" t="n">
         <v>1.16500481230951</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210347</v>
       </c>
       <c r="H13" t="n">
-        <v>2.154403733254293</v>
+        <v>2.154403733254292</v>
       </c>
       <c r="I13" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054393</v>
       </c>
       <c r="J13" t="n">
         <v>17.13169512629716</v>
@@ -31923,28 +31923,28 @@
         <v>28.1526377412984</v>
       </c>
       <c r="L13" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492911</v>
       </c>
       <c r="M13" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272365</v>
       </c>
       <c r="N13" t="n">
-        <v>37.08085689352711</v>
+        <v>37.0808568935271</v>
       </c>
       <c r="O13" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177681</v>
       </c>
       <c r="P13" t="n">
-        <v>29.30693994602769</v>
+        <v>29.30693994602768</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.29060612168229</v>
+        <v>20.29060612168228</v>
       </c>
       <c r="R13" t="n">
         <v>10.89537920723489</v>
       </c>
       <c r="S13" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194759</v>
       </c>
       <c r="T13" t="n">
         <v>1.035347397371694</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242342</v>
       </c>
       <c r="H14" t="n">
-        <v>5.532328395452192</v>
+        <v>5.532328395452191</v>
       </c>
       <c r="I14" t="n">
-        <v>20.82607986971032</v>
+        <v>20.82607986971031</v>
       </c>
       <c r="J14" t="n">
         <v>45.8488423926289</v>
       </c>
       <c r="K14" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024674</v>
       </c>
       <c r="L14" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631242</v>
       </c>
       <c r="M14" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129939</v>
       </c>
       <c r="N14" t="n">
-        <v>96.38932614881227</v>
+        <v>96.38932614881226</v>
       </c>
       <c r="O14" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283128</v>
       </c>
       <c r="P14" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923298</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.33557700616508</v>
+        <v>58.33557700616507</v>
       </c>
       <c r="R14" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040633</v>
       </c>
       <c r="S14" t="n">
         <v>12.30981894899225</v>
@@ -32029,7 +32029,7 @@
         <v>2.364727699362087</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393873</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2890327499527404</v>
+        <v>0.2890327499527403</v>
       </c>
       <c r="H15" t="n">
-        <v>2.791447874543572</v>
+        <v>2.791447874543571</v>
       </c>
       <c r="I15" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372858</v>
       </c>
       <c r="J15" t="n">
         <v>27.307256433035</v>
@@ -32081,28 +32081,28 @@
         <v>46.6724506798686</v>
       </c>
       <c r="L15" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723863</v>
       </c>
       <c r="M15" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302545</v>
       </c>
       <c r="N15" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020854</v>
       </c>
       <c r="O15" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125571</v>
       </c>
       <c r="P15" t="n">
-        <v>55.19257836597549</v>
+        <v>55.19257836597547</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.89477699396735</v>
+        <v>36.89477699396734</v>
       </c>
       <c r="R15" t="n">
         <v>17.94538424706576</v>
       </c>
       <c r="S15" t="n">
-        <v>5.368656561622169</v>
+        <v>5.368656561622168</v>
       </c>
       <c r="T15" t="n">
         <v>1.16500481230951</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210347</v>
       </c>
       <c r="H16" t="n">
-        <v>2.154403733254293</v>
+        <v>2.154403733254292</v>
       </c>
       <c r="I16" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054393</v>
       </c>
       <c r="J16" t="n">
         <v>17.13169512629716</v>
@@ -32160,28 +32160,28 @@
         <v>28.1526377412984</v>
       </c>
       <c r="L16" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492911</v>
       </c>
       <c r="M16" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272365</v>
       </c>
       <c r="N16" t="n">
-        <v>37.08085689352711</v>
+        <v>37.0808568935271</v>
       </c>
       <c r="O16" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177681</v>
       </c>
       <c r="P16" t="n">
-        <v>29.30693994602769</v>
+        <v>29.30693994602768</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.29060612168229</v>
+        <v>20.29060612168228</v>
       </c>
       <c r="R16" t="n">
         <v>10.89537920723489</v>
       </c>
       <c r="S16" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194759</v>
       </c>
       <c r="T16" t="n">
         <v>1.035347397371694</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242342</v>
       </c>
       <c r="H17" t="n">
-        <v>5.532328395452192</v>
+        <v>5.532328395452191</v>
       </c>
       <c r="I17" t="n">
-        <v>20.82607986971032</v>
+        <v>20.82607986971031</v>
       </c>
       <c r="J17" t="n">
         <v>45.8488423926289</v>
       </c>
       <c r="K17" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024674</v>
       </c>
       <c r="L17" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631242</v>
       </c>
       <c r="M17" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129939</v>
       </c>
       <c r="N17" t="n">
-        <v>96.38932614881227</v>
+        <v>96.38932614881226</v>
       </c>
       <c r="O17" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283128</v>
       </c>
       <c r="P17" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923298</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.33557700616508</v>
+        <v>58.33557700616507</v>
       </c>
       <c r="R17" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040633</v>
       </c>
       <c r="S17" t="n">
         <v>12.30981894899225</v>
@@ -32266,7 +32266,7 @@
         <v>2.364727699362087</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393873</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2890327499527404</v>
+        <v>0.2890327499527403</v>
       </c>
       <c r="H18" t="n">
-        <v>2.791447874543572</v>
+        <v>2.791447874543571</v>
       </c>
       <c r="I18" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372858</v>
       </c>
       <c r="J18" t="n">
         <v>27.307256433035</v>
@@ -32318,28 +32318,28 @@
         <v>46.6724506798686</v>
       </c>
       <c r="L18" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723863</v>
       </c>
       <c r="M18" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302545</v>
       </c>
       <c r="N18" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020854</v>
       </c>
       <c r="O18" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125571</v>
       </c>
       <c r="P18" t="n">
-        <v>55.19257836597549</v>
+        <v>55.19257836597547</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.89477699396735</v>
+        <v>36.89477699396734</v>
       </c>
       <c r="R18" t="n">
         <v>17.94538424706576</v>
       </c>
       <c r="S18" t="n">
-        <v>5.368656561622169</v>
+        <v>5.368656561622168</v>
       </c>
       <c r="T18" t="n">
         <v>1.16500481230951</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210347</v>
       </c>
       <c r="H19" t="n">
-        <v>2.154403733254293</v>
+        <v>2.154403733254292</v>
       </c>
       <c r="I19" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054393</v>
       </c>
       <c r="J19" t="n">
         <v>17.13169512629716</v>
@@ -32397,28 +32397,28 @@
         <v>28.1526377412984</v>
       </c>
       <c r="L19" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492911</v>
       </c>
       <c r="M19" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272365</v>
       </c>
       <c r="N19" t="n">
-        <v>37.08085689352711</v>
+        <v>37.0808568935271</v>
       </c>
       <c r="O19" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177681</v>
       </c>
       <c r="P19" t="n">
-        <v>29.30693994602769</v>
+        <v>29.30693994602768</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.29060612168229</v>
+        <v>20.29060612168228</v>
       </c>
       <c r="R19" t="n">
         <v>10.89537920723489</v>
       </c>
       <c r="S19" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194759</v>
       </c>
       <c r="T19" t="n">
         <v>1.035347397371694</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242342</v>
       </c>
       <c r="H20" t="n">
-        <v>5.532328395452192</v>
+        <v>5.532328395452191</v>
       </c>
       <c r="I20" t="n">
-        <v>20.82607986971032</v>
+        <v>20.82607986971031</v>
       </c>
       <c r="J20" t="n">
         <v>45.8488423926289</v>
       </c>
       <c r="K20" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024674</v>
       </c>
       <c r="L20" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631242</v>
       </c>
       <c r="M20" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129939</v>
       </c>
       <c r="N20" t="n">
-        <v>96.38932614881227</v>
+        <v>96.38932614881226</v>
       </c>
       <c r="O20" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283128</v>
       </c>
       <c r="P20" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923298</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.33557700616508</v>
+        <v>58.33557700616507</v>
       </c>
       <c r="R20" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040633</v>
       </c>
       <c r="S20" t="n">
         <v>12.30981894899225</v>
@@ -32503,7 +32503,7 @@
         <v>2.364727699362087</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393873</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2890327499527404</v>
+        <v>0.2890327499527403</v>
       </c>
       <c r="H21" t="n">
-        <v>2.791447874543572</v>
+        <v>2.791447874543571</v>
       </c>
       <c r="I21" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372858</v>
       </c>
       <c r="J21" t="n">
         <v>27.307256433035</v>
@@ -32555,28 +32555,28 @@
         <v>46.6724506798686</v>
       </c>
       <c r="L21" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723863</v>
       </c>
       <c r="M21" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302545</v>
       </c>
       <c r="N21" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020854</v>
       </c>
       <c r="O21" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125571</v>
       </c>
       <c r="P21" t="n">
-        <v>55.19257836597549</v>
+        <v>55.19257836597547</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.89477699396735</v>
+        <v>36.89477699396734</v>
       </c>
       <c r="R21" t="n">
         <v>17.94538424706576</v>
       </c>
       <c r="S21" t="n">
-        <v>5.368656561622169</v>
+        <v>5.368656561622168</v>
       </c>
       <c r="T21" t="n">
         <v>1.16500481230951</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210347</v>
       </c>
       <c r="H22" t="n">
-        <v>2.154403733254293</v>
+        <v>2.154403733254292</v>
       </c>
       <c r="I22" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054393</v>
       </c>
       <c r="J22" t="n">
         <v>17.13169512629716</v>
@@ -32634,28 +32634,28 @@
         <v>28.1526377412984</v>
       </c>
       <c r="L22" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492911</v>
       </c>
       <c r="M22" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272365</v>
       </c>
       <c r="N22" t="n">
-        <v>37.08085689352711</v>
+        <v>37.0808568935271</v>
       </c>
       <c r="O22" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177681</v>
       </c>
       <c r="P22" t="n">
-        <v>29.30693994602769</v>
+        <v>29.30693994602768</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.29060612168229</v>
+        <v>20.29060612168228</v>
       </c>
       <c r="R22" t="n">
         <v>10.89537920723489</v>
       </c>
       <c r="S22" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194759</v>
       </c>
       <c r="T22" t="n">
         <v>1.035347397371694</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242342</v>
       </c>
       <c r="H23" t="n">
-        <v>5.532328395452192</v>
+        <v>5.532328395452191</v>
       </c>
       <c r="I23" t="n">
-        <v>20.82607986971032</v>
+        <v>20.82607986971031</v>
       </c>
       <c r="J23" t="n">
         <v>45.8488423926289</v>
       </c>
       <c r="K23" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024674</v>
       </c>
       <c r="L23" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631242</v>
       </c>
       <c r="M23" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129939</v>
       </c>
       <c r="N23" t="n">
-        <v>96.38932614881227</v>
+        <v>96.38932614881226</v>
       </c>
       <c r="O23" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283128</v>
       </c>
       <c r="P23" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923298</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.33557700616508</v>
+        <v>58.33557700616507</v>
       </c>
       <c r="R23" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040633</v>
       </c>
       <c r="S23" t="n">
         <v>12.30981894899225</v>
@@ -32740,7 +32740,7 @@
         <v>2.364727699362087</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393873</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2890327499527404</v>
+        <v>0.2890327499527403</v>
       </c>
       <c r="H24" t="n">
-        <v>2.791447874543572</v>
+        <v>2.791447874543571</v>
       </c>
       <c r="I24" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372858</v>
       </c>
       <c r="J24" t="n">
         <v>27.307256433035</v>
@@ -32792,28 +32792,28 @@
         <v>46.6724506798686</v>
       </c>
       <c r="L24" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723863</v>
       </c>
       <c r="M24" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302545</v>
       </c>
       <c r="N24" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020854</v>
       </c>
       <c r="O24" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125571</v>
       </c>
       <c r="P24" t="n">
-        <v>55.19257836597549</v>
+        <v>55.19257836597547</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.89477699396735</v>
+        <v>36.89477699396734</v>
       </c>
       <c r="R24" t="n">
         <v>17.94538424706576</v>
       </c>
       <c r="S24" t="n">
-        <v>5.368656561622169</v>
+        <v>5.368656561622168</v>
       </c>
       <c r="T24" t="n">
         <v>1.16500481230951</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210347</v>
       </c>
       <c r="H25" t="n">
-        <v>2.154403733254293</v>
+        <v>2.154403733254292</v>
       </c>
       <c r="I25" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054393</v>
       </c>
       <c r="J25" t="n">
         <v>17.13169512629716</v>
@@ -32871,28 +32871,28 @@
         <v>28.1526377412984</v>
       </c>
       <c r="L25" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492911</v>
       </c>
       <c r="M25" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272365</v>
       </c>
       <c r="N25" t="n">
-        <v>37.08085689352711</v>
+        <v>37.0808568935271</v>
       </c>
       <c r="O25" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177681</v>
       </c>
       <c r="P25" t="n">
-        <v>29.30693994602769</v>
+        <v>29.30693994602768</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.29060612168229</v>
+        <v>20.29060612168228</v>
       </c>
       <c r="R25" t="n">
         <v>10.89537920723489</v>
       </c>
       <c r="S25" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194759</v>
       </c>
       <c r="T25" t="n">
         <v>1.035347397371694</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242342</v>
       </c>
       <c r="H26" t="n">
-        <v>5.532328395452192</v>
+        <v>5.532328395452191</v>
       </c>
       <c r="I26" t="n">
-        <v>20.82607986971032</v>
+        <v>20.82607986971031</v>
       </c>
       <c r="J26" t="n">
         <v>45.8488423926289</v>
       </c>
       <c r="K26" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024674</v>
       </c>
       <c r="L26" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631242</v>
       </c>
       <c r="M26" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129939</v>
       </c>
       <c r="N26" t="n">
-        <v>96.38932614881227</v>
+        <v>96.38932614881226</v>
       </c>
       <c r="O26" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283128</v>
       </c>
       <c r="P26" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923298</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.33557700616508</v>
+        <v>58.33557700616507</v>
       </c>
       <c r="R26" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040633</v>
       </c>
       <c r="S26" t="n">
         <v>12.30981894899225</v>
@@ -32977,7 +32977,7 @@
         <v>2.364727699362087</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393873</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2890327499527404</v>
+        <v>0.2890327499527403</v>
       </c>
       <c r="H27" t="n">
-        <v>2.791447874543572</v>
+        <v>2.791447874543571</v>
       </c>
       <c r="I27" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372858</v>
       </c>
       <c r="J27" t="n">
         <v>27.307256433035</v>
@@ -33029,28 +33029,28 @@
         <v>46.6724506798686</v>
       </c>
       <c r="L27" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723863</v>
       </c>
       <c r="M27" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302545</v>
       </c>
       <c r="N27" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020854</v>
       </c>
       <c r="O27" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125571</v>
       </c>
       <c r="P27" t="n">
-        <v>55.19257836597549</v>
+        <v>55.19257836597547</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.89477699396735</v>
+        <v>36.89477699396734</v>
       </c>
       <c r="R27" t="n">
         <v>17.94538424706576</v>
       </c>
       <c r="S27" t="n">
-        <v>5.368656561622169</v>
+        <v>5.368656561622168</v>
       </c>
       <c r="T27" t="n">
         <v>1.16500481230951</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210347</v>
       </c>
       <c r="H28" t="n">
-        <v>2.154403733254293</v>
+        <v>2.154403733254292</v>
       </c>
       <c r="I28" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054393</v>
       </c>
       <c r="J28" t="n">
         <v>17.13169512629716</v>
@@ -33108,28 +33108,28 @@
         <v>28.1526377412984</v>
       </c>
       <c r="L28" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492911</v>
       </c>
       <c r="M28" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272365</v>
       </c>
       <c r="N28" t="n">
-        <v>37.08085689352711</v>
+        <v>37.0808568935271</v>
       </c>
       <c r="O28" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177681</v>
       </c>
       <c r="P28" t="n">
-        <v>29.30693994602769</v>
+        <v>29.30693994602768</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.29060612168229</v>
+        <v>20.29060612168228</v>
       </c>
       <c r="R28" t="n">
         <v>10.89537920723489</v>
       </c>
       <c r="S28" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194759</v>
       </c>
       <c r="T28" t="n">
         <v>1.035347397371694</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242342</v>
       </c>
       <c r="H29" t="n">
-        <v>5.532328395452192</v>
+        <v>5.532328395452191</v>
       </c>
       <c r="I29" t="n">
-        <v>20.82607986971032</v>
+        <v>20.82607986971031</v>
       </c>
       <c r="J29" t="n">
         <v>45.8488423926289</v>
       </c>
       <c r="K29" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024674</v>
       </c>
       <c r="L29" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631242</v>
       </c>
       <c r="M29" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129939</v>
       </c>
       <c r="N29" t="n">
-        <v>96.38932614881227</v>
+        <v>96.38932614881226</v>
       </c>
       <c r="O29" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283128</v>
       </c>
       <c r="P29" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923298</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.33557700616508</v>
+        <v>58.33557700616507</v>
       </c>
       <c r="R29" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040633</v>
       </c>
       <c r="S29" t="n">
         <v>12.30981894899225</v>
@@ -33214,7 +33214,7 @@
         <v>2.364727699362087</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393873</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2890327499527404</v>
+        <v>0.2890327499527403</v>
       </c>
       <c r="H30" t="n">
-        <v>2.791447874543572</v>
+        <v>2.791447874543571</v>
       </c>
       <c r="I30" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372858</v>
       </c>
       <c r="J30" t="n">
         <v>27.307256433035</v>
@@ -33266,28 +33266,28 @@
         <v>46.6724506798686</v>
       </c>
       <c r="L30" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723863</v>
       </c>
       <c r="M30" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302545</v>
       </c>
       <c r="N30" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020854</v>
       </c>
       <c r="O30" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125571</v>
       </c>
       <c r="P30" t="n">
-        <v>55.19257836597549</v>
+        <v>55.19257836597547</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.89477699396735</v>
+        <v>36.89477699396734</v>
       </c>
       <c r="R30" t="n">
         <v>17.94538424706576</v>
       </c>
       <c r="S30" t="n">
-        <v>5.368656561622169</v>
+        <v>5.368656561622168</v>
       </c>
       <c r="T30" t="n">
         <v>1.16500481230951</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210347</v>
       </c>
       <c r="H31" t="n">
-        <v>2.154403733254293</v>
+        <v>2.154403733254292</v>
       </c>
       <c r="I31" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054393</v>
       </c>
       <c r="J31" t="n">
         <v>17.13169512629716</v>
@@ -33345,28 +33345,28 @@
         <v>28.1526377412984</v>
       </c>
       <c r="L31" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492911</v>
       </c>
       <c r="M31" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272365</v>
       </c>
       <c r="N31" t="n">
-        <v>37.08085689352711</v>
+        <v>37.0808568935271</v>
       </c>
       <c r="O31" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177681</v>
       </c>
       <c r="P31" t="n">
-        <v>29.30693994602769</v>
+        <v>29.30693994602768</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.29060612168229</v>
+        <v>20.29060612168228</v>
       </c>
       <c r="R31" t="n">
         <v>10.89537920723489</v>
       </c>
       <c r="S31" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194759</v>
       </c>
       <c r="T31" t="n">
         <v>1.035347397371694</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242342</v>
       </c>
       <c r="H32" t="n">
-        <v>5.532328395452192</v>
+        <v>5.532328395452191</v>
       </c>
       <c r="I32" t="n">
-        <v>20.82607986971032</v>
+        <v>20.82607986971031</v>
       </c>
       <c r="J32" t="n">
         <v>45.8488423926289</v>
       </c>
       <c r="K32" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024674</v>
       </c>
       <c r="L32" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631242</v>
       </c>
       <c r="M32" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129939</v>
       </c>
       <c r="N32" t="n">
-        <v>96.38932614881227</v>
+        <v>96.38932614881226</v>
       </c>
       <c r="O32" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283128</v>
       </c>
       <c r="P32" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923298</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.33557700616508</v>
+        <v>58.33557700616507</v>
       </c>
       <c r="R32" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040633</v>
       </c>
       <c r="S32" t="n">
         <v>12.30981894899225</v>
@@ -33451,7 +33451,7 @@
         <v>2.364727699362087</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393873</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2890327499527404</v>
+        <v>0.2890327499527403</v>
       </c>
       <c r="H33" t="n">
-        <v>2.791447874543572</v>
+        <v>2.791447874543571</v>
       </c>
       <c r="I33" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372858</v>
       </c>
       <c r="J33" t="n">
         <v>27.307256433035</v>
@@ -33503,28 +33503,28 @@
         <v>46.6724506798686</v>
       </c>
       <c r="L33" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723863</v>
       </c>
       <c r="M33" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302545</v>
       </c>
       <c r="N33" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020854</v>
       </c>
       <c r="O33" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125571</v>
       </c>
       <c r="P33" t="n">
-        <v>55.19257836597549</v>
+        <v>55.19257836597547</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.89477699396735</v>
+        <v>36.89477699396734</v>
       </c>
       <c r="R33" t="n">
         <v>17.94538424706576</v>
       </c>
       <c r="S33" t="n">
-        <v>5.368656561622169</v>
+        <v>5.368656561622168</v>
       </c>
       <c r="T33" t="n">
         <v>1.16500481230951</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210347</v>
       </c>
       <c r="H34" t="n">
-        <v>2.154403733254293</v>
+        <v>2.154403733254292</v>
       </c>
       <c r="I34" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054393</v>
       </c>
       <c r="J34" t="n">
         <v>17.13169512629716</v>
@@ -33582,28 +33582,28 @@
         <v>28.1526377412984</v>
       </c>
       <c r="L34" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492911</v>
       </c>
       <c r="M34" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272365</v>
       </c>
       <c r="N34" t="n">
-        <v>37.08085689352711</v>
+        <v>37.0808568935271</v>
       </c>
       <c r="O34" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177681</v>
       </c>
       <c r="P34" t="n">
-        <v>29.30693994602769</v>
+        <v>29.30693994602768</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.29060612168229</v>
+        <v>20.29060612168228</v>
       </c>
       <c r="R34" t="n">
         <v>10.89537920723489</v>
       </c>
       <c r="S34" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194759</v>
       </c>
       <c r="T34" t="n">
         <v>1.035347397371694</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242342</v>
       </c>
       <c r="H35" t="n">
-        <v>5.532328395452192</v>
+        <v>5.532328395452191</v>
       </c>
       <c r="I35" t="n">
-        <v>20.82607986971032</v>
+        <v>20.82607986971031</v>
       </c>
       <c r="J35" t="n">
         <v>45.8488423926289</v>
       </c>
       <c r="K35" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024674</v>
       </c>
       <c r="L35" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631242</v>
       </c>
       <c r="M35" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129939</v>
       </c>
       <c r="N35" t="n">
-        <v>96.38932614881227</v>
+        <v>96.38932614881226</v>
       </c>
       <c r="O35" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283128</v>
       </c>
       <c r="P35" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923298</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.33557700616508</v>
+        <v>58.33557700616507</v>
       </c>
       <c r="R35" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040633</v>
       </c>
       <c r="S35" t="n">
         <v>12.30981894899225</v>
@@ -33688,7 +33688,7 @@
         <v>2.364727699362087</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393873</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2890327499527404</v>
+        <v>0.2890327499527403</v>
       </c>
       <c r="H36" t="n">
-        <v>2.791447874543572</v>
+        <v>2.791447874543571</v>
       </c>
       <c r="I36" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372858</v>
       </c>
       <c r="J36" t="n">
         <v>27.307256433035</v>
@@ -33740,28 +33740,28 @@
         <v>46.6724506798686</v>
       </c>
       <c r="L36" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723863</v>
       </c>
       <c r="M36" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302545</v>
       </c>
       <c r="N36" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020854</v>
       </c>
       <c r="O36" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125571</v>
       </c>
       <c r="P36" t="n">
-        <v>55.19257836597549</v>
+        <v>55.19257836597547</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.89477699396735</v>
+        <v>36.89477699396734</v>
       </c>
       <c r="R36" t="n">
         <v>17.94538424706576</v>
       </c>
       <c r="S36" t="n">
-        <v>5.368656561622169</v>
+        <v>5.368656561622168</v>
       </c>
       <c r="T36" t="n">
         <v>1.16500481230951</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210347</v>
       </c>
       <c r="H37" t="n">
-        <v>2.154403733254293</v>
+        <v>2.154403733254292</v>
       </c>
       <c r="I37" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054393</v>
       </c>
       <c r="J37" t="n">
         <v>17.13169512629716</v>
@@ -33819,28 +33819,28 @@
         <v>28.1526377412984</v>
       </c>
       <c r="L37" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492911</v>
       </c>
       <c r="M37" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272365</v>
       </c>
       <c r="N37" t="n">
-        <v>37.08085689352711</v>
+        <v>37.0808568935271</v>
       </c>
       <c r="O37" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177681</v>
       </c>
       <c r="P37" t="n">
-        <v>29.30693994602769</v>
+        <v>29.30693994602768</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.29060612168229</v>
+        <v>20.29060612168228</v>
       </c>
       <c r="R37" t="n">
         <v>10.89537920723489</v>
       </c>
       <c r="S37" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194759</v>
       </c>
       <c r="T37" t="n">
         <v>1.035347397371694</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242342</v>
       </c>
       <c r="H38" t="n">
-        <v>5.532328395452192</v>
+        <v>5.532328395452191</v>
       </c>
       <c r="I38" t="n">
-        <v>20.82607986971032</v>
+        <v>20.82607986971031</v>
       </c>
       <c r="J38" t="n">
         <v>45.8488423926289</v>
       </c>
       <c r="K38" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024674</v>
       </c>
       <c r="L38" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631242</v>
       </c>
       <c r="M38" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129939</v>
       </c>
       <c r="N38" t="n">
-        <v>96.38932614881227</v>
+        <v>96.38932614881226</v>
       </c>
       <c r="O38" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283128</v>
       </c>
       <c r="P38" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923298</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.33557700616508</v>
+        <v>58.33557700616507</v>
       </c>
       <c r="R38" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040633</v>
       </c>
       <c r="S38" t="n">
         <v>12.30981894899225</v>
@@ -33925,7 +33925,7 @@
         <v>2.364727699362087</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393873</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2890327499527404</v>
+        <v>0.2890327499527403</v>
       </c>
       <c r="H39" t="n">
-        <v>2.791447874543572</v>
+        <v>2.791447874543571</v>
       </c>
       <c r="I39" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372858</v>
       </c>
       <c r="J39" t="n">
         <v>27.307256433035</v>
@@ -33977,28 +33977,28 @@
         <v>46.6724506798686</v>
       </c>
       <c r="L39" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723863</v>
       </c>
       <c r="M39" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302545</v>
       </c>
       <c r="N39" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020854</v>
       </c>
       <c r="O39" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125571</v>
       </c>
       <c r="P39" t="n">
-        <v>55.19257836597549</v>
+        <v>55.19257836597547</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.89477699396735</v>
+        <v>36.89477699396734</v>
       </c>
       <c r="R39" t="n">
         <v>17.94538424706576</v>
       </c>
       <c r="S39" t="n">
-        <v>5.368656561622169</v>
+        <v>5.368656561622168</v>
       </c>
       <c r="T39" t="n">
         <v>1.16500481230951</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210347</v>
       </c>
       <c r="H40" t="n">
-        <v>2.154403733254293</v>
+        <v>2.154403733254292</v>
       </c>
       <c r="I40" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054393</v>
       </c>
       <c r="J40" t="n">
         <v>17.13169512629716</v>
@@ -34056,28 +34056,28 @@
         <v>28.1526377412984</v>
       </c>
       <c r="L40" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492911</v>
       </c>
       <c r="M40" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272365</v>
       </c>
       <c r="N40" t="n">
-        <v>37.08085689352711</v>
+        <v>37.0808568935271</v>
       </c>
       <c r="O40" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177681</v>
       </c>
       <c r="P40" t="n">
-        <v>29.30693994602769</v>
+        <v>29.30693994602768</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.29060612168229</v>
+        <v>20.29060612168228</v>
       </c>
       <c r="R40" t="n">
         <v>10.89537920723489</v>
       </c>
       <c r="S40" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194759</v>
       </c>
       <c r="T40" t="n">
         <v>1.035347397371694</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242342</v>
       </c>
       <c r="H41" t="n">
-        <v>5.532328395452192</v>
+        <v>5.532328395452191</v>
       </c>
       <c r="I41" t="n">
-        <v>20.82607986971032</v>
+        <v>20.82607986971031</v>
       </c>
       <c r="J41" t="n">
         <v>45.8488423926289</v>
       </c>
       <c r="K41" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024674</v>
       </c>
       <c r="L41" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631242</v>
       </c>
       <c r="M41" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129939</v>
       </c>
       <c r="N41" t="n">
-        <v>96.38932614881227</v>
+        <v>96.38932614881226</v>
       </c>
       <c r="O41" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283128</v>
       </c>
       <c r="P41" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923298</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.33557700616508</v>
+        <v>58.33557700616507</v>
       </c>
       <c r="R41" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040633</v>
       </c>
       <c r="S41" t="n">
         <v>12.30981894899225</v>
@@ -34162,7 +34162,7 @@
         <v>2.364727699362087</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393873</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2890327499527404</v>
+        <v>0.2890327499527403</v>
       </c>
       <c r="H42" t="n">
-        <v>2.791447874543572</v>
+        <v>2.791447874543571</v>
       </c>
       <c r="I42" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372858</v>
       </c>
       <c r="J42" t="n">
         <v>27.307256433035</v>
@@ -34214,28 +34214,28 @@
         <v>46.6724506798686</v>
       </c>
       <c r="L42" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723863</v>
       </c>
       <c r="M42" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302545</v>
       </c>
       <c r="N42" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020854</v>
       </c>
       <c r="O42" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125571</v>
       </c>
       <c r="P42" t="n">
-        <v>55.19257836597549</v>
+        <v>55.19257836597547</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.89477699396735</v>
+        <v>36.89477699396734</v>
       </c>
       <c r="R42" t="n">
         <v>17.94538424706576</v>
       </c>
       <c r="S42" t="n">
-        <v>5.368656561622169</v>
+        <v>5.368656561622168</v>
       </c>
       <c r="T42" t="n">
         <v>1.16500481230951</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210347</v>
       </c>
       <c r="H43" t="n">
-        <v>2.154403733254293</v>
+        <v>2.154403733254292</v>
       </c>
       <c r="I43" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054393</v>
       </c>
       <c r="J43" t="n">
         <v>17.13169512629716</v>
@@ -34293,28 +34293,28 @@
         <v>28.1526377412984</v>
       </c>
       <c r="L43" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492911</v>
       </c>
       <c r="M43" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272365</v>
       </c>
       <c r="N43" t="n">
-        <v>37.08085689352711</v>
+        <v>37.0808568935271</v>
       </c>
       <c r="O43" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177681</v>
       </c>
       <c r="P43" t="n">
-        <v>29.30693994602769</v>
+        <v>29.30693994602768</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.29060612168229</v>
+        <v>20.29060612168228</v>
       </c>
       <c r="R43" t="n">
         <v>10.89537920723489</v>
       </c>
       <c r="S43" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194759</v>
       </c>
       <c r="T43" t="n">
         <v>1.035347397371694</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5402005024242343</v>
+        <v>0.5402005024242342</v>
       </c>
       <c r="H44" t="n">
-        <v>5.532328395452192</v>
+        <v>5.532328395452191</v>
       </c>
       <c r="I44" t="n">
-        <v>20.82607986971032</v>
+        <v>20.82607986971031</v>
       </c>
       <c r="J44" t="n">
         <v>45.8488423926289</v>
       </c>
       <c r="K44" t="n">
-        <v>68.71552966024676</v>
+        <v>68.71552966024674</v>
       </c>
       <c r="L44" t="n">
-        <v>85.24769078631243</v>
+        <v>85.24769078631242</v>
       </c>
       <c r="M44" t="n">
-        <v>94.85448147129941</v>
+        <v>94.85448147129939</v>
       </c>
       <c r="N44" t="n">
-        <v>96.38932614881227</v>
+        <v>96.38932614881226</v>
       </c>
       <c r="O44" t="n">
-        <v>91.01770740283129</v>
+        <v>91.01770740283128</v>
       </c>
       <c r="P44" t="n">
-        <v>77.68150749923299</v>
+        <v>77.68150749923298</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.33557700616508</v>
+        <v>58.33557700616507</v>
       </c>
       <c r="R44" t="n">
-        <v>33.93336981040634</v>
+        <v>33.93336981040633</v>
       </c>
       <c r="S44" t="n">
         <v>12.30981894899225</v>
@@ -34399,7 +34399,7 @@
         <v>2.364727699362087</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04321604019393874</v>
+        <v>0.04321604019393873</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2890327499527404</v>
+        <v>0.2890327499527403</v>
       </c>
       <c r="H45" t="n">
-        <v>2.791447874543572</v>
+        <v>2.791447874543571</v>
       </c>
       <c r="I45" t="n">
-        <v>9.951346873372859</v>
+        <v>9.951346873372858</v>
       </c>
       <c r="J45" t="n">
         <v>27.307256433035</v>
@@ -34451,28 +34451,28 @@
         <v>46.6724506798686</v>
       </c>
       <c r="L45" t="n">
-        <v>62.75686967723865</v>
+        <v>62.75686967723863</v>
       </c>
       <c r="M45" t="n">
-        <v>73.23430686302547</v>
+        <v>73.23430686302545</v>
       </c>
       <c r="N45" t="n">
-        <v>75.17260105020856</v>
+        <v>75.17260105020854</v>
       </c>
       <c r="O45" t="n">
-        <v>68.76824380125572</v>
+        <v>68.76824380125571</v>
       </c>
       <c r="P45" t="n">
-        <v>55.19257836597549</v>
+        <v>55.19257836597547</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.89477699396735</v>
+        <v>36.89477699396734</v>
       </c>
       <c r="R45" t="n">
         <v>17.94538424706576</v>
       </c>
       <c r="S45" t="n">
-        <v>5.368656561622169</v>
+        <v>5.368656561622168</v>
       </c>
       <c r="T45" t="n">
         <v>1.16500481230951</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2423153483210348</v>
+        <v>0.2423153483210347</v>
       </c>
       <c r="H46" t="n">
-        <v>2.154403733254293</v>
+        <v>2.154403733254292</v>
       </c>
       <c r="I46" t="n">
-        <v>7.287083384054394</v>
+        <v>7.287083384054393</v>
       </c>
       <c r="J46" t="n">
         <v>17.13169512629716</v>
@@ -34530,28 +34530,28 @@
         <v>28.1526377412984</v>
       </c>
       <c r="L46" t="n">
-        <v>36.02568369492913</v>
+        <v>36.02568369492911</v>
       </c>
       <c r="M46" t="n">
-        <v>37.98403228272366</v>
+        <v>37.98403228272365</v>
       </c>
       <c r="N46" t="n">
-        <v>37.08085689352711</v>
+        <v>37.0808568935271</v>
       </c>
       <c r="O46" t="n">
-        <v>34.25017305177682</v>
+        <v>34.25017305177681</v>
       </c>
       <c r="P46" t="n">
-        <v>29.30693994602769</v>
+        <v>29.30693994602768</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.29060612168229</v>
+        <v>20.29060612168228</v>
       </c>
       <c r="R46" t="n">
         <v>10.89537920723489</v>
       </c>
       <c r="S46" t="n">
-        <v>4.22289566119476</v>
+        <v>4.222895661194759</v>
       </c>
       <c r="T46" t="n">
         <v>1.035347397371694</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.18956525806649</v>
+        <v>45.18956525806648</v>
       </c>
       <c r="K11" t="n">
         <v>191.2391539654021</v>
@@ -35416,19 +35416,19 @@
         <v>289.7430993230433</v>
       </c>
       <c r="M11" t="n">
-        <v>304.0146895708746</v>
+        <v>337.7609789072543</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>262.7041397799419</v>
+        <v>228.9578504435621</v>
       </c>
       <c r="P11" t="n">
         <v>186.8999931361871</v>
       </c>
       <c r="Q11" t="n">
-        <v>62.3951196648777</v>
+        <v>62.39511966487768</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>34.77524718706016</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,16 +35498,16 @@
         <v>338.9703834416861</v>
       </c>
       <c r="N12" t="n">
-        <v>316.1294381205023</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>338.9703834416861</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>232.011758802183</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>118.8929265053794</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>72.71120160837792</v>
       </c>
       <c r="K13" t="n">
-        <v>13.37822802346505</v>
+        <v>157.7965794333248</v>
       </c>
       <c r="L13" t="n">
-        <v>116.8681515793154</v>
+        <v>103.6270437251028</v>
       </c>
       <c r="M13" t="n">
-        <v>232.5997916894919</v>
+        <v>88.18144027963223</v>
       </c>
       <c r="N13" t="n">
-        <v>235.6962279680247</v>
+        <v>91.27787655816499</v>
       </c>
       <c r="O13" t="n">
-        <v>68.81838108174787</v>
+        <v>213.2367324916076</v>
       </c>
       <c r="P13" t="n">
-        <v>179.8473132545712</v>
+        <v>35.42896184471152</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>84.94825765569381</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>191.2391539654021</v>
+        <v>124.4251521575541</v>
       </c>
       <c r="L14" t="n">
         <v>289.7430993230433</v>
@@ -35656,16 +35656,16 @@
         <v>337.7609789072543</v>
       </c>
       <c r="N14" t="n">
-        <v>274.1474157016287</v>
+        <v>327.5523905305996</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>262.7041397799419</v>
       </c>
       <c r="P14" t="n">
-        <v>186.8999931361871</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.3951196648777</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>34.77524718706016</v>
+        <v>34.77524718706015</v>
       </c>
       <c r="K15" t="n">
-        <v>187.3208941729504</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>67.48711542709316</v>
+        <v>313.3403085074588</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>197.2365116151228</v>
       </c>
       <c r="N15" t="n">
         <v>338.9703834416861</v>
@@ -35741,7 +35741,7 @@
         <v>338.9703834416861</v>
       </c>
       <c r="P15" t="n">
-        <v>255.7688105225381</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>118.8929265053794</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>72.71120160837786</v>
       </c>
       <c r="K16" t="n">
         <v>13.37822802346505</v>
       </c>
       <c r="L16" t="n">
-        <v>217.905165333798</v>
+        <v>103.627043725104</v>
       </c>
       <c r="M16" t="n">
-        <v>232.5997916894918</v>
+        <v>232.5997916894919</v>
       </c>
       <c r="N16" t="n">
-        <v>235.6962279680246</v>
+        <v>91.27787655816499</v>
       </c>
       <c r="O16" t="n">
         <v>68.81838108174787</v>
       </c>
       <c r="P16" t="n">
-        <v>35.42896184471152</v>
+        <v>179.8473132545712</v>
       </c>
       <c r="Q16" t="n">
-        <v>43.38133765537864</v>
+        <v>84.94825765569375</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.18956525806649</v>
+        <v>45.18956525806648</v>
       </c>
       <c r="K17" t="n">
         <v>191.2391539654021</v>
@@ -35890,19 +35890,19 @@
         <v>289.7430993230433</v>
       </c>
       <c r="M17" t="n">
-        <v>337.7609789072543</v>
+        <v>304.0146895708746</v>
       </c>
       <c r="N17" t="n">
-        <v>327.5523905305996</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>262.7041397799419</v>
       </c>
       <c r="P17" t="n">
-        <v>88.30545304914965</v>
+        <v>186.8999931361871</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.3951196648777</v>
+        <v>62.39511966487768</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>34.77524718706016</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>187.3208941729504</v>
       </c>
       <c r="L18" t="n">
-        <v>313.3403085074588</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>338.9703834416861</v>
       </c>
       <c r="N18" t="n">
+        <v>102.2623626141534</v>
+      </c>
+      <c r="O18" t="n">
         <v>338.9703834416861</v>
       </c>
-      <c r="O18" t="n">
-        <v>128.808543947552</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>255.7688105225381</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>118.8929265053794</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>13.37822802346505</v>
       </c>
       <c r="L19" t="n">
-        <v>73.48681392393841</v>
+        <v>73.4868139239384</v>
       </c>
       <c r="M19" t="n">
         <v>88.18144027963223</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.18956525806649</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>191.2391539654021</v>
       </c>
       <c r="L20" t="n">
         <v>289.7430993230433</v>
       </c>
       <c r="M20" t="n">
-        <v>167.7014530056773</v>
+        <v>337.7609789072543</v>
       </c>
       <c r="N20" t="n">
         <v>327.5523905305996</v>
       </c>
       <c r="O20" t="n">
-        <v>262.7041397799419</v>
+        <v>195.8901379720943</v>
       </c>
       <c r="P20" t="n">
-        <v>186.8999931361871</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.3951196648777</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>34.77524718706016</v>
+        <v>34.77524718706015</v>
       </c>
       <c r="K21" t="n">
         <v>187.3208941729504</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>313.3403085074588</v>
       </c>
       <c r="M21" t="n">
-        <v>338.9703834416861</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>338.9703834416861</v>
       </c>
       <c r="O21" t="n">
-        <v>338.9703834416861</v>
+        <v>93.11719036132061</v>
       </c>
       <c r="P21" t="n">
-        <v>103.1784690133245</v>
+        <v>255.7688105225381</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>118.8929265053794</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>13.37822802346505</v>
       </c>
       <c r="L22" t="n">
-        <v>73.48681392393841</v>
+        <v>73.4868139239384</v>
       </c>
       <c r="M22" t="n">
         <v>88.18144027963223</v>
@@ -36358,10 +36358,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>191.2391539654021</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>289.7430993230433</v>
       </c>
       <c r="M23" t="n">
         <v>337.7609789072543</v>
@@ -36373,10 +36373,10 @@
         <v>262.7041397799419</v>
       </c>
       <c r="P23" t="n">
-        <v>186.8999931361871</v>
+        <v>124.425152157555</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.02910437900915</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>34.77524718706015</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>187.3208941729504</v>
       </c>
       <c r="L24" t="n">
-        <v>206.381683867956</v>
+        <v>313.3403085074588</v>
       </c>
       <c r="M24" t="n">
         <v>338.9703834416863</v>
@@ -36449,13 +36449,13 @@
         <v>338.9703834416863</v>
       </c>
       <c r="O24" t="n">
-        <v>338.9703834416863</v>
+        <v>128.8085439475524</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>118.8929265053794</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>13.37822802346505</v>
       </c>
       <c r="L25" t="n">
-        <v>73.48681392393841</v>
+        <v>73.4868139239384</v>
       </c>
       <c r="M25" t="n">
         <v>88.18144027963223</v>
@@ -36598,7 +36598,7 @@
         <v>332.6036439782291</v>
       </c>
       <c r="L26" t="n">
-        <v>431.10758933587</v>
+        <v>431.1075893358703</v>
       </c>
       <c r="M26" t="n">
         <v>479.1254689200813</v>
@@ -36610,13 +36610,13 @@
         <v>404.0686297927689</v>
       </c>
       <c r="P26" t="n">
-        <v>328.2644831490142</v>
+        <v>328.2644831490141</v>
       </c>
       <c r="Q26" t="n">
         <v>203.7596096777047</v>
       </c>
       <c r="R26" t="n">
-        <v>33.44703712235626</v>
+        <v>33.44703712235625</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>34.77524718706016</v>
+        <v>34.77524718706015</v>
       </c>
       <c r="K27" t="n">
         <v>187.3208941729504</v>
@@ -36753,22 +36753,22 @@
         <v>69.65734021134521</v>
       </c>
       <c r="K28" t="n">
-        <v>13.37822802346505</v>
+        <v>105.5877778669213</v>
       </c>
       <c r="L28" t="n">
-        <v>214.8513039367654</v>
+        <v>73.4868139239384</v>
       </c>
       <c r="M28" t="n">
-        <v>229.5459302924592</v>
+        <v>88.18144027963223</v>
       </c>
       <c r="N28" t="n">
         <v>91.27787655816499</v>
       </c>
       <c r="O28" t="n">
-        <v>161.0279309252041</v>
+        <v>210.1828710945749</v>
       </c>
       <c r="P28" t="n">
-        <v>35.42896184471152</v>
+        <v>176.7934518575385</v>
       </c>
       <c r="Q28" t="n">
         <v>81.8943962586611</v>
@@ -36832,7 +36832,7 @@
         <v>186.5540552708935</v>
       </c>
       <c r="K29" t="n">
-        <v>332.6036439782291</v>
+        <v>332.603643978229</v>
       </c>
       <c r="L29" t="n">
         <v>431.1075893358703</v>
@@ -36844,10 +36844,10 @@
         <v>468.9168805434266</v>
       </c>
       <c r="O29" t="n">
-        <v>404.0686297927689</v>
+        <v>404.0686297927688</v>
       </c>
       <c r="P29" t="n">
-        <v>328.2644831490142</v>
+        <v>328.2644831490141</v>
       </c>
       <c r="Q29" t="n">
         <v>203.7596096777047</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>34.77524718706016</v>
+        <v>34.77524718706015</v>
       </c>
       <c r="K30" t="n">
         <v>187.3208941729504</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>69.65734021134521</v>
       </c>
       <c r="K31" t="n">
-        <v>154.742718036292</v>
+        <v>13.37822802346505</v>
       </c>
       <c r="L31" t="n">
-        <v>214.8513039367654</v>
+        <v>165.6963637673947</v>
       </c>
       <c r="M31" t="n">
-        <v>229.5459302924592</v>
+        <v>88.18144027963223</v>
       </c>
       <c r="N31" t="n">
-        <v>91.27787655816499</v>
+        <v>232.642366570992</v>
       </c>
       <c r="O31" t="n">
-        <v>89.32078112372237</v>
+        <v>68.81838108174787</v>
       </c>
       <c r="P31" t="n">
-        <v>35.42896184471152</v>
+        <v>176.7934518575385</v>
       </c>
       <c r="Q31" t="n">
         <v>81.8943962586611</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>186.5540552708935</v>
+        <v>186.5540552708933</v>
       </c>
       <c r="K32" t="n">
-        <v>332.6036439782291</v>
+        <v>332.6036439782289</v>
       </c>
       <c r="L32" t="n">
         <v>431.1075893358702</v>
       </c>
       <c r="M32" t="n">
-        <v>479.1254689200813</v>
+        <v>479.1254689200812</v>
       </c>
       <c r="N32" t="n">
-        <v>468.9168805434266</v>
+        <v>468.9168805434264</v>
       </c>
       <c r="O32" t="n">
-        <v>404.0686297927689</v>
+        <v>404.0686297927687</v>
       </c>
       <c r="P32" t="n">
-        <v>328.2644831490141</v>
+        <v>328.264483149014</v>
       </c>
       <c r="Q32" t="n">
-        <v>203.7596096777041</v>
+        <v>203.7596096777064</v>
       </c>
       <c r="R32" t="n">
-        <v>33.44703712235623</v>
+        <v>33.44703712235614</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>34.77524718706016</v>
+        <v>34.77524718706015</v>
       </c>
       <c r="K33" t="n">
         <v>187.3208941729504</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.65734021134519</v>
+        <v>69.6573402113451</v>
       </c>
       <c r="K34" t="n">
-        <v>13.37822802346505</v>
+        <v>154.7427180362919</v>
       </c>
       <c r="L34" t="n">
-        <v>106.2262700132293</v>
+        <v>214.8513039367653</v>
       </c>
       <c r="M34" t="n">
-        <v>229.5459302924592</v>
+        <v>88.18144027963223</v>
       </c>
       <c r="N34" t="n">
         <v>91.27787655816499</v>
       </c>
       <c r="O34" t="n">
-        <v>210.1828710945748</v>
+        <v>68.81838108174787</v>
       </c>
       <c r="P34" t="n">
-        <v>176.7934518575385</v>
+        <v>127.6385116881701</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>81.89439625866099</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.18956525806649</v>
+        <v>45.18956525806648</v>
       </c>
       <c r="K35" t="n">
         <v>191.2391539654021</v>
@@ -37324,7 +37324,7 @@
         <v>186.8999931361871</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.3951196648777</v>
+        <v>62.39511966487768</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>34.77524718706016</v>
+        <v>34.77524718706015</v>
       </c>
       <c r="K36" t="n">
-        <v>187.3208941729504</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>313.3403085074588</v>
       </c>
       <c r="M36" t="n">
         <v>418.9868900890575</v>
       </c>
       <c r="N36" t="n">
-        <v>348.3859545726662</v>
+        <v>430.216733714214</v>
       </c>
       <c r="O36" t="n">
-        <v>339.3537175157211</v>
+        <v>250.3964505450441</v>
       </c>
       <c r="P36" t="n">
         <v>255.7688105225381</v>
       </c>
       <c r="Q36" t="n">
-        <v>118.8929265053794</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>13.37822802346505</v>
       </c>
       <c r="L37" t="n">
-        <v>73.48681392393841</v>
+        <v>73.4868139239384</v>
       </c>
       <c r="M37" t="n">
         <v>88.18144027963223</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.18956525806649</v>
+        <v>45.18956525806648</v>
       </c>
       <c r="K38" t="n">
         <v>191.2391539654021</v>
@@ -37561,7 +37561,7 @@
         <v>186.8999931361871</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.3951196648777</v>
+        <v>62.39511966487768</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>34.77524718706015</v>
       </c>
       <c r="K39" t="n">
-        <v>82.69386423354143</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>313.3403085074588</v>
+        <v>105.4901150314024</v>
       </c>
       <c r="M39" t="n">
         <v>418.9868900890575</v>
       </c>
       <c r="N39" t="n">
-        <v>430.2167337142139</v>
+        <v>430.216733714214</v>
       </c>
       <c r="O39" t="n">
         <v>339.3537175157211</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>255.7688105225381</v>
       </c>
       <c r="Q39" t="n">
         <v>118.8929265053794</v>
@@ -37704,7 +37704,7 @@
         <v>13.37822802346505</v>
       </c>
       <c r="L40" t="n">
-        <v>73.48681392393841</v>
+        <v>73.4868139239384</v>
       </c>
       <c r="M40" t="n">
         <v>88.18144027963223</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>61.41348152567296</v>
+        <v>45.18956525806648</v>
       </c>
       <c r="K41" t="n">
         <v>191.2391539654021</v>
@@ -37798,13 +37798,13 @@
         <v>186.8999931361871</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.3951196648777</v>
+        <v>62.39511966487768</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>16.22391626760643</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34.77524718706016</v>
+        <v>34.77524718706015</v>
       </c>
       <c r="K42" t="n">
         <v>187.3208941729504</v>
@@ -37865,10 +37865,10 @@
         <v>313.3403085074588</v>
       </c>
       <c r="M42" t="n">
-        <v>35.94235209925672</v>
+        <v>418.9868900890575</v>
       </c>
       <c r="N42" t="n">
-        <v>434.3141003226146</v>
+        <v>51.26956233281388</v>
       </c>
       <c r="O42" t="n">
         <v>339.3537175157211</v>
@@ -37941,7 +37941,7 @@
         <v>13.37822802346505</v>
       </c>
       <c r="L43" t="n">
-        <v>73.48681392393841</v>
+        <v>73.4868139239384</v>
       </c>
       <c r="M43" t="n">
         <v>88.18144027963223</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.18956525806649</v>
+        <v>45.18956525806648</v>
       </c>
       <c r="K44" t="n">
         <v>191.2391539654021</v>
       </c>
       <c r="L44" t="n">
-        <v>305.9670155906497</v>
+        <v>289.7430993230433</v>
       </c>
       <c r="M44" t="n">
         <v>337.7609789072543</v>
@@ -38035,13 +38035,13 @@
         <v>186.8999931361871</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.3951196648777</v>
+        <v>62.39511966487768</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>16.22391626760643</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>187.3208941729504</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>313.3403085074588</v>
       </c>
       <c r="M45" t="n">
-        <v>326.486409808855</v>
+        <v>418.9868900890575</v>
       </c>
       <c r="N45" t="n">
         <v>434.3141003226146</v>
@@ -38111,10 +38111,10 @@
         <v>339.3537175157211</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>213.7133403981269</v>
       </c>
       <c r="Q45" t="n">
-        <v>118.8929265053794</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>13.37822802346505</v>
       </c>
       <c r="L46" t="n">
-        <v>73.48681392393841</v>
+        <v>73.4868139239384</v>
       </c>
       <c r="M46" t="n">
         <v>88.18144027963223</v>
